--- a/R_C14_rates calculation/data_used/Copy of Chla NPP Raw TAN1810 V5.xlsx
+++ b/R_C14_rates calculation/data_used/Copy of Chla NPP Raw TAN1810 V5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/data_used/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/data_used/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC3ADAE-8C02-0D42-9167-52F380A11C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71904A-9B50-154F-AEFE-2EA314323C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{B58FDA5F-C642-47F4-85EC-4C4CDDE34750}"/>
+    <workbookView xWindow="25620" yWindow="-5140" windowWidth="18780" windowHeight="21140" xr2:uid="{B58FDA5F-C642-47F4-85EC-4C4CDDE34750}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled TAN1810 NPP data" sheetId="2" r:id="rId1"/>
@@ -37,6 +37,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Karl Safi</author>
+    <author>tc={7D48DAFA-2C0F-5440-A0B5-8AF55F2A15D7}</author>
+    <author>tc={782C61B7-D477-FC41-A62F-8014B2471B02}</author>
   </authors>
   <commentList>
     <comment ref="AH6" authorId="0" shapeId="0" xr:uid="{5455238D-E285-4CA9-880D-7E2A0BED4149}">
@@ -171,12 +173,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL346" authorId="1" shapeId="0" xr:uid="{7D48DAFA-2C0F-5440-A0B5-8AF55F2A15D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not sure why the mean and SD was calculated like that, but I recalculated for the NPP sheet</t>
+      </text>
+    </comment>
+    <comment ref="AL372" authorId="2" shapeId="0" xr:uid="{782C61B7-D477-FC41-A62F-8014B2471B02}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I recalculated this</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="295">
   <si>
     <t>TAN1810 - 'Salps &amp; Carbon cycle' (21 October - 21 November 2018)</t>
   </si>
@@ -1081,6 +1099,9 @@
   <si>
     <t>U9128_NPP_T24_5m_D</t>
   </si>
+  <si>
+    <t>Denise comments</t>
+  </si>
 </sst>
 </file>
 
@@ -1092,7 +1113,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,6 +1190,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -1737,6 +1764,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="#DENISE ONG RUI YING#" id="{C1846774-1171-8B4A-8FA9-EC37712400D0}" userId="S::a190104@e.ntu.edu.sg::7df2ad65-443f-4b1e-b209-d610a8a12b16" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2032,15 +2065,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AL346" dT="2022-10-25T07:52:18.06" personId="{C1846774-1171-8B4A-8FA9-EC37712400D0}" id="{7D48DAFA-2C0F-5440-A0B5-8AF55F2A15D7}">
+    <text>Not sure why the mean and SD was calculated like that, but I recalculated for the NPP sheet</text>
+  </threadedComment>
+  <threadedComment ref="AL372" dT="2022-10-25T07:55:12.23" personId="{C1846774-1171-8B4A-8FA9-EC37712400D0}" id="{782C61B7-D477-FC41-A62F-8014B2471B02}">
+    <text>I recalculated this</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2C2A3E-AEA2-4487-8959-DA6D45A1E874}">
-  <dimension ref="A1:MU401"/>
+  <dimension ref="A1:MW401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="AH134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AL361" sqref="AL361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2068,13 +2112,14 @@
     <col min="34" max="34" width="30.1640625" style="87" customWidth="1"/>
     <col min="35" max="35" width="16.6640625" style="104" customWidth="1"/>
     <col min="36" max="37" width="9.1640625" style="88"/>
-    <col min="38" max="38" width="9.1640625" style="184"/>
-    <col min="39" max="39" width="9.1640625" style="185"/>
-    <col min="40" max="40" width="9.1640625" style="83"/>
-    <col min="41" max="359" width="9.1640625" style="27"/>
+    <col min="38" max="39" width="8.83203125" style="88"/>
+    <col min="40" max="40" width="9.1640625" style="184"/>
+    <col min="41" max="41" width="9.1640625" style="185"/>
+    <col min="42" max="42" width="9.1640625" style="83"/>
+    <col min="43" max="361" width="9.1640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:359" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:361" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2137,7 @@
       </c>
       <c r="AH1" s="103"/>
     </row>
-    <row r="2" spans="1:359" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:361" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2105,11 +2150,11 @@
       <c r="K2" s="8"/>
       <c r="AG2" s="105"/>
       <c r="AH2" s="106"/>
-      <c r="AO2" s="84" t="s">
+      <c r="AQ2" s="84" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:359" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:361" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2123,11 +2168,11 @@
       <c r="AA3" s="160"/>
       <c r="AG3" s="105"/>
       <c r="AH3" s="106"/>
-      <c r="AO3" s="27" t="s">
+      <c r="AQ3" s="27" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:359" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:361" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2142,7 +2187,7 @@
       <c r="AG4" s="105"/>
       <c r="AH4" s="106"/>
     </row>
-    <row r="5" spans="1:359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>258</v>
       </c>
@@ -2161,11 +2206,11 @@
         <v>283</v>
       </c>
       <c r="AH5" s="108"/>
-      <c r="AO5" s="27" t="s">
+      <c r="AQ5" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:359" s="22" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:361" s="22" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2277,20 +2322,22 @@
       <c r="AK6" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="AL6" s="186"/>
-      <c r="AM6" s="185"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="27" t="s">
+      <c r="AL6" s="113" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="186"/>
+      <c r="AO6" s="185"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
       <c r="AR6" s="77"/>
-      <c r="AS6" s="77" t="s">
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
       <c r="AV6" s="77"/>
       <c r="AW6" s="77"/>
       <c r="AX6" s="77"/>
@@ -2603,8 +2650,10 @@
       <c r="MS6" s="77"/>
       <c r="MT6" s="77"/>
       <c r="MU6" s="77"/>
+      <c r="MV6" s="77"/>
+      <c r="MW6" s="77"/>
     </row>
-    <row r="7" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>9</v>
       </c>
@@ -2712,19 +2761,21 @@
         <f>STDEV(AI7:AI9)</f>
         <v>0.72833803405143172</v>
       </c>
-      <c r="AL7" s="187">
+      <c r="AL7" s="167"/>
+      <c r="AM7" s="167"/>
+      <c r="AN7" s="187">
         <f>AVERAGE(AI7:AI9)-AVERAGE(AI10)</f>
         <v>6.4092441066112382</v>
       </c>
-      <c r="AM7" s="188">
+      <c r="AO7" s="188">
         <f>STDEV(AI7:AI9)</f>
         <v>0.72833803405143172</v>
       </c>
-      <c r="AO7" s="86" t="s">
+      <c r="AQ7" s="86" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>9</v>
       </c>
@@ -2826,13 +2877,15 @@
       </c>
       <c r="AJ8" s="101"/>
       <c r="AK8" s="101"/>
-      <c r="AL8" s="184"/>
-      <c r="AM8" s="185"/>
-      <c r="AO8" s="86" t="s">
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="184"/>
+      <c r="AO8" s="185"/>
+      <c r="AQ8" s="86" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
@@ -2934,13 +2987,15 @@
       </c>
       <c r="AJ9" s="101"/>
       <c r="AK9" s="101"/>
-      <c r="AL9" s="184"/>
-      <c r="AM9" s="185"/>
-      <c r="AO9" s="86" t="s">
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="101"/>
+      <c r="AN9" s="184"/>
+      <c r="AO9" s="185"/>
+      <c r="AQ9" s="86" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>135</v>
       </c>
@@ -3042,13 +3097,15 @@
       </c>
       <c r="AJ10" s="101"/>
       <c r="AK10" s="101"/>
-      <c r="AL10" s="184"/>
-      <c r="AM10" s="185"/>
-      <c r="AO10" s="86" t="s">
+      <c r="AL10" s="101"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="184"/>
+      <c r="AO10" s="185"/>
+      <c r="AQ10" s="86" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
@@ -3155,19 +3212,21 @@
         <f>STDEV(AI11:AI13)</f>
         <v>0.86441247763281404</v>
       </c>
-      <c r="AL11" s="187">
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="187">
         <f>AVERAGE(AI11:AI13)-AVERAGE(AI14)</f>
         <v>-1.471811143349818</v>
       </c>
-      <c r="AM11" s="188">
+      <c r="AO11" s="188">
         <f>STDEV(AI11:AI13)</f>
         <v>0.86441247763281404</v>
       </c>
-      <c r="AO11" s="27" t="s">
+      <c r="AQ11" s="27" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3326,7 @@
         <v>7.1098181939852738</v>
       </c>
     </row>
-    <row r="13" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
@@ -3367,7 +3426,7 @@
         <v>6.8819556352434912</v>
       </c>
     </row>
-    <row r="14" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>136</v>
       </c>
@@ -3467,7 +3526,7 @@
         <v>7.9729831248737071</v>
       </c>
     </row>
-    <row r="15" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
         <v>12</v>
       </c>
@@ -3575,16 +3634,18 @@
         <f>STDEV(AI15:AI17)</f>
         <v>2.3270046522759378</v>
       </c>
-      <c r="AL15" s="187">
+      <c r="AL15" s="167"/>
+      <c r="AM15" s="167"/>
+      <c r="AN15" s="187">
         <f>AVERAGE(AI15:AI17)-AVERAGE(AI18)</f>
         <v>26.907187104521682</v>
       </c>
-      <c r="AM15" s="188">
+      <c r="AO15" s="188">
         <f>STDEV(AI15:AI17)</f>
         <v>2.3270046522759378</v>
       </c>
     </row>
-    <row r="16" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
         <v>12</v>
       </c>
@@ -3686,10 +3747,12 @@
       </c>
       <c r="AJ16" s="101"/>
       <c r="AK16" s="101"/>
-      <c r="AL16" s="184"/>
-      <c r="AM16" s="185"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="101"/>
+      <c r="AN16" s="184"/>
+      <c r="AO16" s="185"/>
     </row>
-    <row r="17" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
         <v>12</v>
       </c>
@@ -3791,10 +3854,12 @@
       </c>
       <c r="AJ17" s="101"/>
       <c r="AK17" s="101"/>
-      <c r="AL17" s="184"/>
-      <c r="AM17" s="185"/>
+      <c r="AL17" s="101"/>
+      <c r="AM17" s="101"/>
+      <c r="AN17" s="184"/>
+      <c r="AO17" s="185"/>
     </row>
-    <row r="18" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>134</v>
       </c>
@@ -3896,10 +3961,12 @@
       </c>
       <c r="AJ18" s="101"/>
       <c r="AK18" s="101"/>
-      <c r="AL18" s="184"/>
-      <c r="AM18" s="185"/>
+      <c r="AL18" s="101"/>
+      <c r="AM18" s="101"/>
+      <c r="AN18" s="184"/>
+      <c r="AO18" s="185"/>
     </row>
-    <row r="19" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
@@ -4006,16 +4073,18 @@
         <f>STDEV(AI19:AI21)</f>
         <v>2.7114987410391054</v>
       </c>
-      <c r="AL19" s="187">
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="187">
         <f>AVERAGE(AI19:AI21)-AVERAGE(AI22)</f>
         <v>26.343566979096568</v>
       </c>
-      <c r="AM19" s="188">
+      <c r="AO19" s="188">
         <f>STDEV(AI19:AI21)</f>
         <v>2.7114987410391054</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
@@ -4115,7 +4184,7 @@
         <v>27.54119384365957</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>14</v>
       </c>
@@ -4215,7 +4284,7 @@
         <v>24.04235374815325</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>133</v>
       </c>
@@ -4315,7 +4384,7 @@
         <v>0.64427745563459948</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>15</v>
       </c>
@@ -4423,16 +4492,18 @@
         <f>STDEV(AI23:AI25)</f>
         <v>3.8150694890344807</v>
       </c>
-      <c r="AL23" s="187">
+      <c r="AL23" s="167"/>
+      <c r="AM23" s="167"/>
+      <c r="AN23" s="187">
         <f>AVERAGE(AI23:AI25)-AVERAGE(AI26)</f>
         <v>15.330446934187428</v>
       </c>
-      <c r="AM23" s="188">
+      <c r="AO23" s="188">
         <f>STDEV(AI23:AI25)</f>
         <v>3.8150694890344807</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>15</v>
       </c>
@@ -4534,10 +4605,12 @@
       </c>
       <c r="AJ24" s="101"/>
       <c r="AK24" s="101"/>
-      <c r="AL24" s="184"/>
-      <c r="AM24" s="185"/>
+      <c r="AL24" s="101"/>
+      <c r="AM24" s="101"/>
+      <c r="AN24" s="184"/>
+      <c r="AO24" s="185"/>
     </row>
-    <row r="25" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>15</v>
       </c>
@@ -4639,10 +4712,12 @@
       </c>
       <c r="AJ25" s="101"/>
       <c r="AK25" s="101"/>
-      <c r="AL25" s="184"/>
-      <c r="AM25" s="185"/>
+      <c r="AL25" s="101"/>
+      <c r="AM25" s="101"/>
+      <c r="AN25" s="184"/>
+      <c r="AO25" s="185"/>
     </row>
-    <row r="26" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
         <v>132</v>
       </c>
@@ -4744,10 +4819,12 @@
       </c>
       <c r="AJ26" s="101"/>
       <c r="AK26" s="101"/>
-      <c r="AL26" s="184"/>
-      <c r="AM26" s="185"/>
+      <c r="AL26" s="101"/>
+      <c r="AM26" s="101"/>
+      <c r="AN26" s="184"/>
+      <c r="AO26" s="185"/>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>16</v>
       </c>
@@ -4853,16 +4930,18 @@
         <f>STDEV(AI27:AI29)</f>
         <v>4.6355893600903384</v>
       </c>
-      <c r="AL27" s="187">
+      <c r="AL27" s="116"/>
+      <c r="AM27" s="116"/>
+      <c r="AN27" s="187">
         <f>AVERAGE(AI27:AI29)-AVERAGE(AI30)</f>
         <v>18.526436962321828</v>
       </c>
-      <c r="AM27" s="188">
+      <c r="AO27" s="188">
         <f>STDEV(AI27:AI29)</f>
         <v>4.6355893600903384</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
@@ -4958,7 +5037,7 @@
         <v>18.664938850585227</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>16</v>
       </c>
@@ -5054,7 +5133,7 @@
         <v>24.0494876170442</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>137</v>
       </c>
@@ -5150,7 +5229,7 @@
         <v>0.65206508053702228</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>17</v>
       </c>
@@ -5255,16 +5334,18 @@
         <f>STDEV(AI31:AI33)</f>
         <v>0.15176735830088486</v>
       </c>
-      <c r="AL31" s="187">
+      <c r="AL31" s="167"/>
+      <c r="AM31" s="167"/>
+      <c r="AN31" s="187">
         <f>AVERAGE(AI31:AI33)-AVERAGE(AI34)</f>
         <v>4.8058351120740213</v>
       </c>
-      <c r="AM31" s="188">
+      <c r="AO31" s="188">
         <f>STDEV(AI31:AI33)</f>
         <v>0.15176735830088486</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>17</v>
       </c>
@@ -5363,10 +5444,12 @@
       </c>
       <c r="AJ32" s="101"/>
       <c r="AK32" s="101"/>
-      <c r="AL32" s="184"/>
-      <c r="AM32" s="185"/>
+      <c r="AL32" s="101"/>
+      <c r="AM32" s="101"/>
+      <c r="AN32" s="184"/>
+      <c r="AO32" s="185"/>
     </row>
-    <row r="33" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>17</v>
       </c>
@@ -5465,10 +5548,12 @@
       </c>
       <c r="AJ33" s="101"/>
       <c r="AK33" s="101"/>
-      <c r="AL33" s="184"/>
-      <c r="AM33" s="185"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="101"/>
+      <c r="AN33" s="184"/>
+      <c r="AO33" s="185"/>
     </row>
-    <row r="34" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>165</v>
       </c>
@@ -5569,10 +5654,12 @@
       </c>
       <c r="AJ34" s="101"/>
       <c r="AK34" s="101"/>
-      <c r="AL34" s="184"/>
-      <c r="AM34" s="185"/>
+      <c r="AL34" s="101"/>
+      <c r="AM34" s="101"/>
+      <c r="AN34" s="184"/>
+      <c r="AO34" s="185"/>
     </row>
-    <row r="35" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>18</v>
       </c>
@@ -5675,16 +5762,18 @@
         <f>STDEV(AI35:AI37)</f>
         <v>0.21442642954908736</v>
       </c>
-      <c r="AL35" s="187">
+      <c r="AL35" s="116"/>
+      <c r="AM35" s="116"/>
+      <c r="AN35" s="187">
         <f>AVERAGE(AI35:AI37)-AVERAGE(AI38)</f>
         <v>1.4429209787378057</v>
       </c>
-      <c r="AM35" s="188">
+      <c r="AO35" s="188">
         <f>STDEV(AI35:AI37)</f>
         <v>0.21442642954908736</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>18</v>
       </c>
@@ -5780,7 +5869,7 @@
         <v>1.5470423715238206</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>18</v>
       </c>
@@ -5876,7 +5965,7 @@
         <v>1.7929032086830559</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>166</v>
       </c>
@@ -5972,7 +6061,7 @@
         <v>0.3284862004668469</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>19</v>
       </c>
@@ -6077,16 +6166,18 @@
         <f>STDEV(AI39:AI41)</f>
         <v>0.88049600537221939</v>
       </c>
-      <c r="AL39" s="187">
+      <c r="AL39" s="167"/>
+      <c r="AM39" s="167"/>
+      <c r="AN39" s="187">
         <f>AVERAGE(AI39:AI41)-AVERAGE(AI42)</f>
         <v>14.587505702917451</v>
       </c>
-      <c r="AM39" s="188">
+      <c r="AO39" s="188">
         <f>STDEV(AI39:AI41)</f>
         <v>0.88049600537221939</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>19</v>
       </c>
@@ -6185,10 +6276,12 @@
       </c>
       <c r="AJ40" s="101"/>
       <c r="AK40" s="101"/>
-      <c r="AL40" s="184"/>
-      <c r="AM40" s="185"/>
+      <c r="AL40" s="101"/>
+      <c r="AM40" s="101"/>
+      <c r="AN40" s="184"/>
+      <c r="AO40" s="185"/>
     </row>
-    <row r="41" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
         <v>19</v>
       </c>
@@ -6287,10 +6380,12 @@
       </c>
       <c r="AJ41" s="101"/>
       <c r="AK41" s="101"/>
-      <c r="AL41" s="184"/>
-      <c r="AM41" s="185"/>
+      <c r="AL41" s="101"/>
+      <c r="AM41" s="101"/>
+      <c r="AN41" s="184"/>
+      <c r="AO41" s="185"/>
     </row>
-    <row r="42" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
         <v>164</v>
       </c>
@@ -6389,10 +6484,12 @@
       </c>
       <c r="AJ42" s="101"/>
       <c r="AK42" s="101"/>
-      <c r="AL42" s="184"/>
-      <c r="AM42" s="185"/>
+      <c r="AL42" s="101"/>
+      <c r="AM42" s="101"/>
+      <c r="AN42" s="184"/>
+      <c r="AO42" s="185"/>
     </row>
-    <row r="43" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>20</v>
       </c>
@@ -6495,16 +6592,18 @@
         <f>STDEV(AI43:AI45)</f>
         <v>1.4533505305501042</v>
       </c>
-      <c r="AL43" s="187">
+      <c r="AL43" s="116"/>
+      <c r="AM43" s="116"/>
+      <c r="AN43" s="187">
         <f>AVERAGE(AI43:AI45)-AVERAGE(AI46)</f>
         <v>16.233287499935891</v>
       </c>
-      <c r="AM43" s="188">
+      <c r="AO43" s="188">
         <f>STDEV(AI43:AI45)</f>
         <v>1.4533505305501042</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>20</v>
       </c>
@@ -6600,7 +6699,7 @@
         <v>18.742567350204155</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>20</v>
       </c>
@@ -6696,7 +6795,7 @@
         <v>17.346892692080353</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>167</v>
       </c>
@@ -6792,7 +6891,7 @@
         <v>1.0754056501149698</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
         <v>21</v>
       </c>
@@ -6897,16 +6996,18 @@
         <f>STDEV(AI47:AI49)</f>
         <v>2.5599441159945435</v>
       </c>
-      <c r="AL47" s="187">
+      <c r="AL47" s="167"/>
+      <c r="AM47" s="167"/>
+      <c r="AN47" s="187">
         <f>AVERAGE(AI47:AI49)-AVERAGE(AI50)</f>
         <v>12.303335233834963</v>
       </c>
-      <c r="AM47" s="188">
+      <c r="AO47" s="188">
         <f>STDEV(AI47:AI49)</f>
         <v>2.5599441159945435</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
         <v>21</v>
       </c>
@@ -7005,10 +7106,12 @@
       </c>
       <c r="AJ48" s="101"/>
       <c r="AK48" s="101"/>
-      <c r="AL48" s="184"/>
-      <c r="AM48" s="185"/>
+      <c r="AL48" s="101"/>
+      <c r="AM48" s="101"/>
+      <c r="AN48" s="184"/>
+      <c r="AO48" s="185"/>
     </row>
-    <row r="49" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
         <v>21</v>
       </c>
@@ -7107,10 +7210,12 @@
       </c>
       <c r="AJ49" s="101"/>
       <c r="AK49" s="101"/>
-      <c r="AL49" s="184"/>
-      <c r="AM49" s="185"/>
+      <c r="AL49" s="101"/>
+      <c r="AM49" s="101"/>
+      <c r="AN49" s="184"/>
+      <c r="AO49" s="185"/>
     </row>
-    <row r="50" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
         <v>163</v>
       </c>
@@ -7209,10 +7314,12 @@
       </c>
       <c r="AJ50" s="101"/>
       <c r="AK50" s="101"/>
-      <c r="AL50" s="184"/>
-      <c r="AM50" s="185"/>
+      <c r="AL50" s="101"/>
+      <c r="AM50" s="101"/>
+      <c r="AN50" s="184"/>
+      <c r="AO50" s="185"/>
     </row>
-    <row r="51" spans="1:359" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:361" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>22</v>
       </c>
@@ -7318,16 +7425,18 @@
         <f>STDEV(AI51:AI53)</f>
         <v>8.5080342273671423</v>
       </c>
-      <c r="AL51" s="187">
+      <c r="AL51" s="116"/>
+      <c r="AM51" s="116"/>
+      <c r="AN51" s="187">
         <f>AVERAGE(AI51:AI53)-AVERAGE(AI54)</f>
         <v>6.7150960051694799</v>
       </c>
-      <c r="AM51" s="188">
+      <c r="AO51" s="188">
         <f>STDEV(AI51:AI53)</f>
         <v>8.5080342273671423</v>
       </c>
     </row>
-    <row r="52" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>22</v>
       </c>
@@ -7423,7 +7532,7 @@
         <v>16.768547082952338</v>
       </c>
     </row>
-    <row r="53" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>22</v>
       </c>
@@ -7519,7 +7628,7 @@
         <v>5.7928635726216013</v>
       </c>
     </row>
-    <row r="54" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>168</v>
       </c>
@@ -7618,7 +7727,7 @@
         <v>0.81193382233272071</v>
       </c>
     </row>
-    <row r="55" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
         <v>23</v>
       </c>
@@ -7723,16 +7832,18 @@
         <f>STDEV(AI55:AI57)</f>
         <v>0.44608368259082487</v>
       </c>
-      <c r="AL55" s="187">
+      <c r="AL55" s="167"/>
+      <c r="AM55" s="167"/>
+      <c r="AN55" s="187">
         <f>AVERAGE(AI55:AI57)-AVERAGE(AI58)</f>
         <v>3.7771874564451564</v>
       </c>
-      <c r="AM55" s="188">
+      <c r="AO55" s="188">
         <f>STDEV(AI55:AI57)</f>
         <v>0.44608368259082487</v>
       </c>
     </row>
-    <row r="56" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
         <v>23</v>
       </c>
@@ -7831,10 +7942,12 @@
       </c>
       <c r="AJ56" s="101"/>
       <c r="AK56" s="101"/>
-      <c r="AL56" s="184"/>
-      <c r="AM56" s="185"/>
+      <c r="AL56" s="101"/>
+      <c r="AM56" s="101"/>
+      <c r="AN56" s="184"/>
+      <c r="AO56" s="185"/>
     </row>
-    <row r="57" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
         <v>23</v>
       </c>
@@ -7933,10 +8046,12 @@
       </c>
       <c r="AJ57" s="101"/>
       <c r="AK57" s="101"/>
-      <c r="AL57" s="184"/>
-      <c r="AM57" s="185"/>
+      <c r="AL57" s="101"/>
+      <c r="AM57" s="101"/>
+      <c r="AN57" s="184"/>
+      <c r="AO57" s="185"/>
     </row>
-    <row r="58" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
         <v>139</v>
       </c>
@@ -8035,10 +8150,12 @@
       </c>
       <c r="AJ58" s="101"/>
       <c r="AK58" s="101"/>
-      <c r="AL58" s="184"/>
-      <c r="AM58" s="185"/>
+      <c r="AL58" s="101"/>
+      <c r="AM58" s="101"/>
+      <c r="AN58" s="184"/>
+      <c r="AO58" s="185"/>
     </row>
-    <row r="59" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>24</v>
       </c>
@@ -8141,16 +8258,18 @@
         <f>STDEV(AI59:AI61)</f>
         <v>0.18397528092375676</v>
       </c>
-      <c r="AL59" s="187">
+      <c r="AL59" s="116"/>
+      <c r="AM59" s="116"/>
+      <c r="AN59" s="187">
         <f>AVERAGE(AI59:AI61)-AVERAGE(AI63)</f>
         <v>2.0464325764015392</v>
       </c>
-      <c r="AM59" s="188">
+      <c r="AO59" s="188">
         <f>STDEV(AI59:AI61)</f>
         <v>0.18397528092375676</v>
       </c>
     </row>
-    <row r="60" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>24</v>
       </c>
@@ -8246,7 +8365,7 @@
         <v>2.2418953871867489</v>
       </c>
     </row>
-    <row r="61" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>24</v>
       </c>
@@ -8342,7 +8461,7 @@
         <v>2.2214663708337143</v>
       </c>
     </row>
-    <row r="62" spans="1:359" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:361" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
         <v>24</v>
       </c>
@@ -8446,11 +8565,11 @@
       </c>
       <c r="AJ62" s="88"/>
       <c r="AK62" s="88"/>
-      <c r="AL62" s="184"/>
-      <c r="AM62" s="185"/>
-      <c r="AN62" s="84"/>
-      <c r="AO62" s="55"/>
-      <c r="AP62" s="55"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="184"/>
+      <c r="AO62" s="185"/>
+      <c r="AP62" s="84"/>
       <c r="AQ62" s="55"/>
       <c r="AR62" s="55"/>
       <c r="AS62" s="55"/>
@@ -8768,8 +8887,10 @@
       <c r="MS62" s="55"/>
       <c r="MT62" s="55"/>
       <c r="MU62" s="55"/>
+      <c r="MV62" s="55"/>
+      <c r="MW62" s="55"/>
     </row>
-    <row r="63" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>141</v>
       </c>
@@ -8866,10 +8987,12 @@
       </c>
       <c r="AJ63" s="116"/>
       <c r="AK63" s="116"/>
-      <c r="AL63" s="187"/>
-      <c r="AM63" s="188"/>
+      <c r="AL63" s="116"/>
+      <c r="AM63" s="116"/>
+      <c r="AN63" s="187"/>
+      <c r="AO63" s="188"/>
     </row>
-    <row r="64" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="36" t="s">
         <v>30</v>
       </c>
@@ -8986,16 +9109,18 @@
         <f>STDEV(AI64:AI66)</f>
         <v>3.5370340884789929E-2</v>
       </c>
-      <c r="AL64" s="187">
+      <c r="AL64" s="167"/>
+      <c r="AM64" s="167"/>
+      <c r="AN64" s="187">
         <f>AVERAGE(AI64:AI66)-AVERAGE(AI67)</f>
         <v>1.6487312474450151</v>
       </c>
-      <c r="AM64" s="188">
+      <c r="AO64" s="188">
         <f>STDEV(AI64:AI66)</f>
         <v>3.5370340884789929E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="36" t="s">
         <v>30</v>
       </c>
@@ -9106,10 +9231,12 @@
       </c>
       <c r="AJ65" s="101"/>
       <c r="AK65" s="101"/>
-      <c r="AL65" s="184"/>
-      <c r="AM65" s="185"/>
+      <c r="AL65" s="101"/>
+      <c r="AM65" s="101"/>
+      <c r="AN65" s="184"/>
+      <c r="AO65" s="185"/>
     </row>
-    <row r="66" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="36" t="s">
         <v>30</v>
       </c>
@@ -9220,10 +9347,12 @@
       </c>
       <c r="AJ66" s="101"/>
       <c r="AK66" s="101"/>
-      <c r="AL66" s="184"/>
-      <c r="AM66" s="185"/>
+      <c r="AL66" s="101"/>
+      <c r="AM66" s="101"/>
+      <c r="AN66" s="184"/>
+      <c r="AO66" s="185"/>
     </row>
-    <row r="67" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="36" t="s">
         <v>162</v>
       </c>
@@ -9334,10 +9463,12 @@
       </c>
       <c r="AJ67" s="101"/>
       <c r="AK67" s="101"/>
-      <c r="AL67" s="184"/>
-      <c r="AM67" s="185"/>
+      <c r="AL67" s="101"/>
+      <c r="AM67" s="101"/>
+      <c r="AN67" s="184"/>
+      <c r="AO67" s="185"/>
     </row>
-    <row r="68" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>29</v>
       </c>
@@ -9453,16 +9584,18 @@
         <f>STDEV(AI68:AI70)</f>
         <v>0.7004677388021926</v>
       </c>
-      <c r="AL68" s="187">
+      <c r="AL68" s="116"/>
+      <c r="AM68" s="116"/>
+      <c r="AN68" s="187">
         <f>AVERAGE(AI68:AI70)-AVERAGE(AI71)</f>
         <v>4.1549276700421407</v>
       </c>
-      <c r="AM68" s="188">
+      <c r="AO68" s="188">
         <f>STDEV(AI68:AI70)</f>
         <v>0.7004677388021926</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>29</v>
       </c>
@@ -9571,7 +9704,7 @@
         <v>4.488273314855113</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>29</v>
       </c>
@@ -9680,7 +9813,7 @@
         <v>5.5187146814269177</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>169</v>
       </c>
@@ -9789,7 +9922,7 @@
         <v>0.57458171745011521</v>
       </c>
     </row>
-    <row r="72" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="36" t="s">
         <v>28</v>
       </c>
@@ -9906,16 +10039,18 @@
         <f>STDEV(AI72:AI74)</f>
         <v>0.7956121125325688</v>
       </c>
-      <c r="AL72" s="187">
+      <c r="AL72" s="167"/>
+      <c r="AM72" s="167"/>
+      <c r="AN72" s="187">
         <f>AVERAGE(AI72:AI74)-AVERAGE(AI75)</f>
         <v>5.7813255442891416</v>
       </c>
-      <c r="AM72" s="188">
+      <c r="AO72" s="188">
         <f>STDEV(AI72:AI74)</f>
         <v>0.7956121125325688</v>
       </c>
     </row>
-    <row r="73" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="36" t="s">
         <v>28</v>
       </c>
@@ -10026,10 +10161,12 @@
       </c>
       <c r="AJ73" s="101"/>
       <c r="AK73" s="101"/>
-      <c r="AL73" s="184"/>
-      <c r="AM73" s="185"/>
+      <c r="AL73" s="101"/>
+      <c r="AM73" s="101"/>
+      <c r="AN73" s="184"/>
+      <c r="AO73" s="185"/>
     </row>
-    <row r="74" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="36" t="s">
         <v>28</v>
       </c>
@@ -10140,10 +10277,12 @@
       </c>
       <c r="AJ74" s="101"/>
       <c r="AK74" s="101"/>
-      <c r="AL74" s="184"/>
-      <c r="AM74" s="185"/>
+      <c r="AL74" s="101"/>
+      <c r="AM74" s="101"/>
+      <c r="AN74" s="184"/>
+      <c r="AO74" s="185"/>
     </row>
-    <row r="75" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="36" t="s">
         <v>161</v>
       </c>
@@ -10254,10 +10393,12 @@
       </c>
       <c r="AJ75" s="101"/>
       <c r="AK75" s="101"/>
-      <c r="AL75" s="184"/>
-      <c r="AM75" s="185"/>
+      <c r="AL75" s="101"/>
+      <c r="AM75" s="101"/>
+      <c r="AN75" s="184"/>
+      <c r="AO75" s="185"/>
     </row>
-    <row r="76" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>27</v>
       </c>
@@ -10373,16 +10514,18 @@
         <f>STDEV(AI76:AI78)</f>
         <v>0.45371502170717587</v>
       </c>
-      <c r="AL76" s="187">
+      <c r="AL76" s="116"/>
+      <c r="AM76" s="116"/>
+      <c r="AN76" s="187">
         <f>AVERAGE(AI76:AI78)-AVERAGE(AI79)</f>
         <v>9.0855863705506454</v>
       </c>
-      <c r="AM76" s="188">
+      <c r="AO76" s="188">
         <f>STDEV(AI76:AI78)</f>
         <v>0.45371502170717587</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>27</v>
       </c>
@@ -10491,7 +10634,7 @@
         <v>10.177947905713761</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
         <v>27</v>
       </c>
@@ -10600,7 +10743,7 @@
         <v>9.5973728832467149</v>
       </c>
     </row>
-    <row r="79" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>170</v>
       </c>
@@ -10709,7 +10852,7 @@
         <v>0.60075298533319932</v>
       </c>
     </row>
-    <row r="80" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="36" t="s">
         <v>142</v>
       </c>
@@ -10826,16 +10969,18 @@
         <f>STDEV(AI80:AI82)</f>
         <v>0.48257802190093113</v>
       </c>
-      <c r="AL80" s="187">
+      <c r="AL80" s="167"/>
+      <c r="AM80" s="167"/>
+      <c r="AN80" s="187">
         <f>AVERAGE(AI80:AI82)-AVERAGE(AI83)</f>
         <v>12.360786190177091</v>
       </c>
-      <c r="AM80" s="188">
+      <c r="AO80" s="188">
         <f>STDEV(AI80:AI82)</f>
         <v>0.48257802190093113</v>
       </c>
     </row>
-    <row r="81" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="36" t="s">
         <v>142</v>
       </c>
@@ -10946,10 +11091,12 @@
       </c>
       <c r="AJ81" s="101"/>
       <c r="AK81" s="101"/>
-      <c r="AL81" s="184"/>
-      <c r="AM81" s="185"/>
+      <c r="AL81" s="101"/>
+      <c r="AM81" s="101"/>
+      <c r="AN81" s="184"/>
+      <c r="AO81" s="185"/>
     </row>
-    <row r="82" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="36" t="s">
         <v>142</v>
       </c>
@@ -11060,10 +11207,12 @@
       </c>
       <c r="AJ82" s="101"/>
       <c r="AK82" s="101"/>
-      <c r="AL82" s="184"/>
-      <c r="AM82" s="185"/>
+      <c r="AL82" s="101"/>
+      <c r="AM82" s="101"/>
+      <c r="AN82" s="184"/>
+      <c r="AO82" s="185"/>
     </row>
-    <row r="83" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="36" t="s">
         <v>171</v>
       </c>
@@ -11174,10 +11323,12 @@
       </c>
       <c r="AJ83" s="101"/>
       <c r="AK83" s="101"/>
-      <c r="AL83" s="184"/>
-      <c r="AM83" s="185"/>
+      <c r="AL83" s="101"/>
+      <c r="AM83" s="101"/>
+      <c r="AN83" s="184"/>
+      <c r="AO83" s="185"/>
     </row>
-    <row r="84" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>31</v>
       </c>
@@ -11293,16 +11444,18 @@
         <f>STDEV(AI84:AI86)</f>
         <v>1.0170275271119602</v>
       </c>
-      <c r="AL84" s="187">
+      <c r="AL84" s="116"/>
+      <c r="AM84" s="116"/>
+      <c r="AN84" s="187">
         <f>AVERAGE(AI84:AI86)-AVERAGE(AI87)</f>
         <v>14.140603958294536</v>
       </c>
-      <c r="AM84" s="188">
+      <c r="AO84" s="188">
         <f>STDEV(AI84:AI86)</f>
         <v>1.0170275271119602</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>31</v>
       </c>
@@ -11411,7 +11564,7 @@
         <v>13.552228514435269</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
         <v>31</v>
       </c>
@@ -11520,7 +11673,7 @@
         <v>14.915403942886881</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>31</v>
       </c>
@@ -11629,7 +11782,7 @@
         <v>0.52901925314672671</v>
       </c>
     </row>
-    <row r="88" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="36" t="s">
         <v>37</v>
       </c>
@@ -11746,16 +11899,18 @@
         <f>STDEV(AI88:AI90)</f>
         <v>0.16556711741051305</v>
       </c>
-      <c r="AL88" s="187">
+      <c r="AL88" s="167"/>
+      <c r="AM88" s="167"/>
+      <c r="AN88" s="187">
         <f>AVERAGE(AI88:AI90)-AVERAGE(AI91)</f>
         <v>0.96088817096338541</v>
       </c>
-      <c r="AM88" s="188">
+      <c r="AO88" s="188">
         <f>STDEV(AI88:AI90)</f>
         <v>0.16556711741051305</v>
       </c>
     </row>
-    <row r="89" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="36" t="s">
         <v>37</v>
       </c>
@@ -11866,10 +12021,12 @@
       </c>
       <c r="AJ89" s="101"/>
       <c r="AK89" s="101"/>
-      <c r="AL89" s="184"/>
-      <c r="AM89" s="185"/>
+      <c r="AL89" s="101"/>
+      <c r="AM89" s="101"/>
+      <c r="AN89" s="184"/>
+      <c r="AO89" s="185"/>
     </row>
-    <row r="90" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="36" t="s">
         <v>37</v>
       </c>
@@ -11980,10 +12137,12 @@
       </c>
       <c r="AJ90" s="101"/>
       <c r="AK90" s="101"/>
-      <c r="AL90" s="184"/>
-      <c r="AM90" s="185"/>
+      <c r="AL90" s="101"/>
+      <c r="AM90" s="101"/>
+      <c r="AN90" s="184"/>
+      <c r="AO90" s="185"/>
     </row>
-    <row r="91" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="36" t="s">
         <v>172</v>
       </c>
@@ -12094,10 +12253,12 @@
       </c>
       <c r="AJ91" s="101"/>
       <c r="AK91" s="101"/>
-      <c r="AL91" s="184"/>
-      <c r="AM91" s="185"/>
+      <c r="AL91" s="101"/>
+      <c r="AM91" s="101"/>
+      <c r="AN91" s="184"/>
+      <c r="AO91" s="185"/>
     </row>
-    <row r="92" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
         <v>36</v>
       </c>
@@ -12213,16 +12374,18 @@
         <f>STDEV(AI92:AI94)</f>
         <v>0.13236065417889278</v>
       </c>
-      <c r="AL92" s="187">
+      <c r="AL92" s="116"/>
+      <c r="AM92" s="116"/>
+      <c r="AN92" s="187">
         <f>AVERAGE(AI92:AI94)-AVERAGE(AI95)</f>
         <v>2.0279771300663043</v>
       </c>
-      <c r="AM92" s="188">
+      <c r="AO92" s="188">
         <f>STDEV(AI92:AI94)</f>
         <v>0.13236065417889278</v>
       </c>
     </row>
-    <row r="93" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
         <v>36</v>
       </c>
@@ -12331,7 +12494,7 @@
         <v>2.1879223938710259</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>36</v>
       </c>
@@ -12440,7 +12603,7 @@
         <v>2.4507049480951584</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
         <v>144</v>
       </c>
@@ -12549,7 +12712,7 @@
         <v>0.28210480085825995</v>
       </c>
     </row>
-    <row r="96" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="36" t="s">
         <v>35</v>
       </c>
@@ -12666,16 +12829,18 @@
         <f>STDEV(AI96:AI98)</f>
         <v>0.46976918332323553</v>
       </c>
-      <c r="AL96" s="187">
+      <c r="AL96" s="167"/>
+      <c r="AM96" s="167"/>
+      <c r="AN96" s="187">
         <f>AVERAGE(AI96:AI98)-AVERAGE(AI99)</f>
         <v>6.1054874830639569</v>
       </c>
-      <c r="AM96" s="188">
+      <c r="AO96" s="188">
         <f>STDEV(AI96:AI98)</f>
         <v>0.46976918332323553</v>
       </c>
     </row>
-    <row r="97" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="36" t="s">
         <v>35</v>
       </c>
@@ -12786,10 +12951,12 @@
       </c>
       <c r="AJ97" s="101"/>
       <c r="AK97" s="101"/>
-      <c r="AL97" s="184"/>
-      <c r="AM97" s="185"/>
+      <c r="AL97" s="101"/>
+      <c r="AM97" s="101"/>
+      <c r="AN97" s="184"/>
+      <c r="AO97" s="185"/>
     </row>
-    <row r="98" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="36" t="s">
         <v>35</v>
       </c>
@@ -12900,10 +13067,12 @@
       </c>
       <c r="AJ98" s="101"/>
       <c r="AK98" s="101"/>
-      <c r="AL98" s="184"/>
-      <c r="AM98" s="185"/>
+      <c r="AL98" s="101"/>
+      <c r="AM98" s="101"/>
+      <c r="AN98" s="184"/>
+      <c r="AO98" s="185"/>
     </row>
-    <row r="99" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="36" t="s">
         <v>143</v>
       </c>
@@ -13014,10 +13183,12 @@
       </c>
       <c r="AJ99" s="101"/>
       <c r="AK99" s="101"/>
-      <c r="AL99" s="184"/>
-      <c r="AM99" s="185"/>
+      <c r="AL99" s="101"/>
+      <c r="AM99" s="101"/>
+      <c r="AN99" s="184"/>
+      <c r="AO99" s="185"/>
     </row>
-    <row r="100" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
         <v>34</v>
       </c>
@@ -13133,16 +13304,18 @@
         <f>STDEV(AI100:AI102)</f>
         <v>1.2236815656617401</v>
       </c>
-      <c r="AL100" s="187">
+      <c r="AL100" s="116"/>
+      <c r="AM100" s="116"/>
+      <c r="AN100" s="187">
         <f>AVERAGE(AI100:AI102)-AVERAGE(AI103)</f>
         <v>9.2130640352534918</v>
       </c>
-      <c r="AM100" s="188">
+      <c r="AO100" s="188">
         <f>STDEV(AI100:AI102)</f>
         <v>1.2236815656617401</v>
       </c>
     </row>
-    <row r="101" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
         <v>34</v>
       </c>
@@ -13251,7 +13424,7 @@
         <v>11.05920805738007</v>
       </c>
     </row>
-    <row r="102" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>34</v>
       </c>
@@ -13360,7 +13533,7 @@
         <v>8.644972066028636</v>
       </c>
     </row>
-    <row r="103" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>173</v>
       </c>
@@ -13469,7 +13642,7 @@
         <v>0.52317739150533393</v>
       </c>
     </row>
-    <row r="104" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="36" t="s">
         <v>33</v>
       </c>
@@ -13586,16 +13759,18 @@
         <f>STDEV(AI104:AI106)</f>
         <v>1.4907449321274036</v>
       </c>
-      <c r="AL104" s="187">
+      <c r="AL104" s="167"/>
+      <c r="AM104" s="167"/>
+      <c r="AN104" s="187">
         <f>AVERAGE(AI104:AI106)-AVERAGE(AI107)</f>
         <v>13.933570968463576</v>
       </c>
-      <c r="AM104" s="188">
+      <c r="AO104" s="188">
         <f>STDEV(AI104:AI106)</f>
         <v>1.4907449321274036</v>
       </c>
     </row>
-    <row r="105" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="36" t="s">
         <v>33</v>
       </c>
@@ -13706,10 +13881,12 @@
       </c>
       <c r="AJ105" s="101"/>
       <c r="AK105" s="101"/>
-      <c r="AL105" s="184"/>
-      <c r="AM105" s="185"/>
+      <c r="AL105" s="101"/>
+      <c r="AM105" s="101"/>
+      <c r="AN105" s="184"/>
+      <c r="AO105" s="185"/>
     </row>
-    <row r="106" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="36" t="s">
         <v>33</v>
       </c>
@@ -13820,10 +13997,12 @@
       </c>
       <c r="AJ106" s="101"/>
       <c r="AK106" s="101"/>
-      <c r="AL106" s="184"/>
-      <c r="AM106" s="185"/>
+      <c r="AL106" s="101"/>
+      <c r="AM106" s="101"/>
+      <c r="AN106" s="184"/>
+      <c r="AO106" s="185"/>
     </row>
-    <row r="107" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="36" t="s">
         <v>174</v>
       </c>
@@ -13934,10 +14113,12 @@
       </c>
       <c r="AJ107" s="101"/>
       <c r="AK107" s="101"/>
-      <c r="AL107" s="184"/>
-      <c r="AM107" s="185"/>
+      <c r="AL107" s="101"/>
+      <c r="AM107" s="101"/>
+      <c r="AN107" s="184"/>
+      <c r="AO107" s="185"/>
     </row>
-    <row r="108" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>31</v>
       </c>
@@ -14053,16 +14234,18 @@
         <f>STDEV(AI108:AI110)</f>
         <v>0.89402453645824054</v>
       </c>
-      <c r="AL108" s="187">
+      <c r="AL108" s="116"/>
+      <c r="AM108" s="116"/>
+      <c r="AN108" s="187">
         <f>AVERAGE(AI108:AI110)-AVERAGE(AI111)</f>
         <v>15.763010859517923</v>
       </c>
-      <c r="AM108" s="188">
+      <c r="AO108" s="188">
         <f>STDEV(AI108:AI110)</f>
         <v>0.89402453645824054</v>
       </c>
     </row>
-    <row r="109" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>31</v>
       </c>
@@ -14171,7 +14354,7 @@
         <v>16.035124746010776</v>
       </c>
     </row>
-    <row r="110" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>31</v>
       </c>
@@ -14280,7 +14463,7 @@
         <v>15.652809891950705</v>
       </c>
     </row>
-    <row r="111" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
         <v>145</v>
       </c>
@@ -14389,7 +14572,7 @@
         <v>0.5851848170815398</v>
       </c>
     </row>
-    <row r="112" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="36" t="s">
         <v>41</v>
       </c>
@@ -14506,16 +14689,18 @@
         <f>STDEV(AI112:AI114)</f>
         <v>0.19788545080194148</v>
       </c>
-      <c r="AL112" s="187">
+      <c r="AL112" s="167"/>
+      <c r="AM112" s="167"/>
+      <c r="AN112" s="187">
         <f>AVERAGE(AI112:AI114)-AVERAGE(AI115)</f>
         <v>1.2997329241922806</v>
       </c>
-      <c r="AM112" s="188">
+      <c r="AO112" s="188">
         <f>STDEV(AI112:AI114)</f>
         <v>0.19788545080194148</v>
       </c>
     </row>
-    <row r="113" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="36" t="s">
         <v>41</v>
       </c>
@@ -14626,10 +14811,12 @@
       </c>
       <c r="AJ113" s="101"/>
       <c r="AK113" s="101"/>
-      <c r="AL113" s="184"/>
-      <c r="AM113" s="185"/>
+      <c r="AL113" s="101"/>
+      <c r="AM113" s="101"/>
+      <c r="AN113" s="184"/>
+      <c r="AO113" s="185"/>
     </row>
-    <row r="114" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="36" t="s">
         <v>41</v>
       </c>
@@ -14740,10 +14927,12 @@
       </c>
       <c r="AJ114" s="101"/>
       <c r="AK114" s="101"/>
-      <c r="AL114" s="184"/>
-      <c r="AM114" s="185"/>
+      <c r="AL114" s="101"/>
+      <c r="AM114" s="101"/>
+      <c r="AN114" s="184"/>
+      <c r="AO114" s="185"/>
     </row>
-    <row r="115" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="36" t="s">
         <v>175</v>
       </c>
@@ -14854,10 +15043,12 @@
       </c>
       <c r="AJ115" s="101"/>
       <c r="AK115" s="101"/>
-      <c r="AL115" s="184"/>
-      <c r="AM115" s="185"/>
+      <c r="AL115" s="101"/>
+      <c r="AM115" s="101"/>
+      <c r="AN115" s="184"/>
+      <c r="AO115" s="185"/>
     </row>
-    <row r="116" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
         <v>40</v>
       </c>
@@ -14973,16 +15164,18 @@
         <f>STDEV(AI116:AI118)</f>
         <v>0.45135969336867338</v>
       </c>
-      <c r="AL116" s="187">
+      <c r="AL116" s="116"/>
+      <c r="AM116" s="116"/>
+      <c r="AN116" s="187">
         <f>AVERAGE(AI116:AI118)-AVERAGE(AI119)</f>
         <v>2.3070845562341322</v>
       </c>
-      <c r="AM116" s="188">
+      <c r="AO116" s="188">
         <f>STDEV(AI116:AI118)</f>
         <v>0.45135969336867338</v>
       </c>
     </row>
-    <row r="117" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>40</v>
       </c>
@@ -15091,7 +15284,7 @@
         <v>2.4532115251063846</v>
       </c>
     </row>
-    <row r="118" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>40</v>
       </c>
@@ -15200,7 +15393,7 @@
         <v>2.4575154049749921</v>
       </c>
     </row>
-    <row r="119" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
         <v>176</v>
       </c>
@@ -15309,7 +15502,7 @@
         <v>0.40886858751773075</v>
       </c>
     </row>
-    <row r="120" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="36" t="s">
         <v>38</v>
       </c>
@@ -15426,16 +15619,18 @@
         <f>STDEV(AI120:AI122)</f>
         <v>0.55887150983125966</v>
       </c>
-      <c r="AL120" s="187">
+      <c r="AL120" s="167"/>
+      <c r="AM120" s="167"/>
+      <c r="AN120" s="187">
         <f>AVERAGE(AI120:AI122)-AVERAGE(AI123)</f>
         <v>4.9467292717224538</v>
       </c>
-      <c r="AM120" s="188">
+      <c r="AO120" s="188">
         <f>STDEV(AI120:AI122)</f>
         <v>0.55887150983125966</v>
       </c>
     </row>
-    <row r="121" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
         <v>38</v>
       </c>
@@ -15546,10 +15741,12 @@
       </c>
       <c r="AJ121" s="101"/>
       <c r="AK121" s="101"/>
-      <c r="AL121" s="184"/>
-      <c r="AM121" s="185"/>
+      <c r="AL121" s="101"/>
+      <c r="AM121" s="101"/>
+      <c r="AN121" s="184"/>
+      <c r="AO121" s="185"/>
     </row>
-    <row r="122" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="36" t="s">
         <v>38</v>
       </c>
@@ -15660,10 +15857,12 @@
       </c>
       <c r="AJ122" s="101"/>
       <c r="AK122" s="101"/>
-      <c r="AL122" s="184"/>
-      <c r="AM122" s="185"/>
+      <c r="AL122" s="101"/>
+      <c r="AM122" s="101"/>
+      <c r="AN122" s="184"/>
+      <c r="AO122" s="185"/>
     </row>
-    <row r="123" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="36" t="s">
         <v>177</v>
       </c>
@@ -15774,10 +15973,12 @@
       </c>
       <c r="AJ123" s="101"/>
       <c r="AK123" s="101"/>
-      <c r="AL123" s="184"/>
-      <c r="AM123" s="185"/>
+      <c r="AL123" s="101"/>
+      <c r="AM123" s="101"/>
+      <c r="AN123" s="184"/>
+      <c r="AO123" s="185"/>
     </row>
-    <row r="124" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
         <v>48</v>
       </c>
@@ -15893,16 +16094,18 @@
         <f>STDEV(AI124:AI126)</f>
         <v>0.12569868432344899</v>
       </c>
-      <c r="AL124" s="187">
+      <c r="AL124" s="116"/>
+      <c r="AM124" s="116"/>
+      <c r="AN124" s="187">
         <f>AVERAGE(AI124:AI126)-AVERAGE(AI127)</f>
         <v>1.1942037344127869</v>
       </c>
-      <c r="AM124" s="188">
+      <c r="AO124" s="188">
         <f>STDEV(AI124:AI126)</f>
         <v>0.12569868432344899</v>
       </c>
     </row>
-    <row r="125" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
         <v>48</v>
       </c>
@@ -16011,7 +16214,7 @@
         <v>1.5612885982548805</v>
       </c>
     </row>
-    <row r="126" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>48</v>
       </c>
@@ -16120,7 +16323,7 @@
         <v>1.6628044824212473</v>
       </c>
     </row>
-    <row r="127" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
         <v>178</v>
       </c>
@@ -16229,7 +16432,7 @@
         <v>0.35145056100634553</v>
       </c>
     </row>
-    <row r="128" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="36" t="s">
         <v>47</v>
       </c>
@@ -16346,16 +16549,18 @@
         <f>STDEV(AI128:AI130)</f>
         <v>0.16913965906780415</v>
       </c>
-      <c r="AL128" s="187">
+      <c r="AL128" s="167"/>
+      <c r="AM128" s="167"/>
+      <c r="AN128" s="187">
         <f>AVERAGE(AI128:AI130)-AVERAGE(AI131)</f>
         <v>5.0538212100239051</v>
       </c>
-      <c r="AM128" s="188">
+      <c r="AO128" s="188">
         <f>STDEV(AI128:AI130)</f>
         <v>0.16913965906780415</v>
       </c>
     </row>
-    <row r="129" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="36" t="s">
         <v>47</v>
       </c>
@@ -16466,10 +16671,12 @@
       </c>
       <c r="AJ129" s="101"/>
       <c r="AK129" s="101"/>
-      <c r="AL129" s="184"/>
-      <c r="AM129" s="185"/>
+      <c r="AL129" s="101"/>
+      <c r="AM129" s="101"/>
+      <c r="AN129" s="184"/>
+      <c r="AO129" s="185"/>
     </row>
-    <row r="130" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="36" t="s">
         <v>47</v>
       </c>
@@ -16580,10 +16787,12 @@
       </c>
       <c r="AJ130" s="101"/>
       <c r="AK130" s="101"/>
-      <c r="AL130" s="184"/>
-      <c r="AM130" s="185"/>
+      <c r="AL130" s="101"/>
+      <c r="AM130" s="101"/>
+      <c r="AN130" s="184"/>
+      <c r="AO130" s="185"/>
     </row>
-    <row r="131" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="36" t="s">
         <v>179</v>
       </c>
@@ -16694,10 +16903,12 @@
       </c>
       <c r="AJ131" s="101"/>
       <c r="AK131" s="101"/>
-      <c r="AL131" s="184"/>
-      <c r="AM131" s="185"/>
+      <c r="AL131" s="101"/>
+      <c r="AM131" s="101"/>
+      <c r="AN131" s="184"/>
+      <c r="AO131" s="185"/>
     </row>
-    <row r="132" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
         <v>46</v>
       </c>
@@ -16811,16 +17022,18 @@
         <f>STDEV(AI132:AI134)</f>
         <v>0.48488008669472249</v>
       </c>
-      <c r="AL132" s="187">
+      <c r="AL132" s="116"/>
+      <c r="AM132" s="116"/>
+      <c r="AN132" s="187">
         <f>AVERAGE(AI132:AI134)-AVERAGE(AI135)</f>
         <v>7.2093110943305057</v>
       </c>
-      <c r="AM132" s="188">
+      <c r="AO132" s="188">
         <f>STDEV(AI132:AI134)</f>
         <v>0.48488008669472249</v>
       </c>
     </row>
-    <row r="133" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
         <v>46</v>
       </c>
@@ -16927,7 +17140,7 @@
         <v>7.9183234613863247</v>
       </c>
     </row>
-    <row r="134" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
         <v>46</v>
       </c>
@@ -17034,7 +17247,7 @@
         <v>7.9109888506926449</v>
       </c>
     </row>
-    <row r="135" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>180</v>
       </c>
@@ -17141,7 +17354,7 @@
         <v>0.42540742023349154</v>
       </c>
     </row>
-    <row r="136" spans="1:39" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:41" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="36" t="s">
         <v>45</v>
       </c>
@@ -17258,16 +17471,18 @@
         <f>STDEV(AI136:AI138)</f>
         <v>0.79122738807809778</v>
       </c>
-      <c r="AL136" s="187">
+      <c r="AL136" s="167"/>
+      <c r="AM136" s="167"/>
+      <c r="AN136" s="187">
         <f>AVERAGE(AI136:AI138)-AVERAGE(AI139)</f>
         <v>4.5859725543745151</v>
       </c>
-      <c r="AM136" s="188">
+      <c r="AO136" s="188">
         <f>STDEV(AI136:AI138)</f>
         <v>0.79122738807809778</v>
       </c>
     </row>
-    <row r="137" spans="1:39" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:41" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="36" t="s">
         <v>45</v>
       </c>
@@ -17378,10 +17593,12 @@
       </c>
       <c r="AJ137" s="101"/>
       <c r="AK137" s="101"/>
-      <c r="AL137" s="184"/>
-      <c r="AM137" s="185"/>
+      <c r="AL137" s="101"/>
+      <c r="AM137" s="101"/>
+      <c r="AN137" s="184"/>
+      <c r="AO137" s="185"/>
     </row>
-    <row r="138" spans="1:39" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:41" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="36" t="s">
         <v>45</v>
       </c>
@@ -17492,10 +17709,12 @@
       </c>
       <c r="AJ138" s="101"/>
       <c r="AK138" s="101"/>
-      <c r="AL138" s="184"/>
-      <c r="AM138" s="185"/>
+      <c r="AL138" s="101"/>
+      <c r="AM138" s="101"/>
+      <c r="AN138" s="184"/>
+      <c r="AO138" s="185"/>
     </row>
-    <row r="139" spans="1:39" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:41" s="86" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="36" t="s">
         <v>181</v>
       </c>
@@ -17606,10 +17825,12 @@
       </c>
       <c r="AJ139" s="101"/>
       <c r="AK139" s="101"/>
-      <c r="AL139" s="184"/>
-      <c r="AM139" s="185"/>
+      <c r="AL139" s="101"/>
+      <c r="AM139" s="101"/>
+      <c r="AN139" s="184"/>
+      <c r="AO139" s="185"/>
     </row>
-    <row r="140" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
         <v>44</v>
       </c>
@@ -17725,16 +17946,18 @@
         <f>STDEV(AI140:AI142)</f>
         <v>0.83375061244164117</v>
       </c>
-      <c r="AL140" s="187">
+      <c r="AL140" s="116"/>
+      <c r="AM140" s="116"/>
+      <c r="AN140" s="187">
         <f>AVERAGE(AI140:AI142)-AVERAGE(AI143)</f>
         <v>9.0600454950962668</v>
       </c>
-      <c r="AM140" s="188">
+      <c r="AO140" s="188">
         <f>STDEV(AI140:AI142)</f>
         <v>0.83375061244164117</v>
       </c>
     </row>
-    <row r="141" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
         <v>44</v>
       </c>
@@ -17843,7 +18066,7 @@
         <v>10.284506235539197</v>
       </c>
     </row>
-    <row r="142" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
         <v>44</v>
       </c>
@@ -17952,7 +18175,7 @@
         <v>8.6650128107513034</v>
       </c>
     </row>
-    <row r="143" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
         <v>182</v>
       </c>
@@ -18061,7 +18284,7 @@
         <v>0.30004007646740016</v>
       </c>
     </row>
-    <row r="144" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="36" t="s">
         <v>42</v>
       </c>
@@ -18178,16 +18401,18 @@
         <f>STDEV(AI144:AI146)</f>
         <v>1.627390686341788</v>
       </c>
-      <c r="AL144" s="187">
+      <c r="AL144" s="167"/>
+      <c r="AM144" s="167"/>
+      <c r="AN144" s="187">
         <f>AVERAGE(AI144:AI146)-AVERAGE(AI147)</f>
         <v>8.4351343163925812</v>
       </c>
-      <c r="AM144" s="188">
+      <c r="AO144" s="188">
         <f>STDEV(AI144:AI146)</f>
         <v>1.627390686341788</v>
       </c>
     </row>
-    <row r="145" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="36" t="s">
         <v>42</v>
       </c>
@@ -18298,10 +18523,12 @@
       </c>
       <c r="AJ145" s="101"/>
       <c r="AK145" s="101"/>
-      <c r="AL145" s="184"/>
-      <c r="AM145" s="185"/>
+      <c r="AL145" s="101"/>
+      <c r="AM145" s="101"/>
+      <c r="AN145" s="184"/>
+      <c r="AO145" s="185"/>
     </row>
-    <row r="146" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="36" t="s">
         <v>42</v>
       </c>
@@ -18412,10 +18639,12 @@
       </c>
       <c r="AJ146" s="101"/>
       <c r="AK146" s="101"/>
-      <c r="AL146" s="184"/>
-      <c r="AM146" s="185"/>
+      <c r="AL146" s="101"/>
+      <c r="AM146" s="101"/>
+      <c r="AN146" s="184"/>
+      <c r="AO146" s="185"/>
     </row>
-    <row r="147" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="36" t="s">
         <v>183</v>
       </c>
@@ -18526,10 +18755,12 @@
       </c>
       <c r="AJ147" s="101"/>
       <c r="AK147" s="101"/>
-      <c r="AL147" s="184"/>
-      <c r="AM147" s="185"/>
+      <c r="AL147" s="101"/>
+      <c r="AM147" s="101"/>
+      <c r="AN147" s="184"/>
+      <c r="AO147" s="185"/>
     </row>
-    <row r="148" spans="1:40" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:42" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
         <v>49</v>
       </c>
@@ -18642,16 +18873,18 @@
         <f>STDEV(AI148:AI150)</f>
         <v>4.3139085245177622E-2</v>
       </c>
-      <c r="AL148" s="187">
+      <c r="AL148" s="104"/>
+      <c r="AM148" s="104"/>
+      <c r="AN148" s="187">
         <f>AVERAGE(AI148:AI150)-AVERAGE(AI151)</f>
         <v>2.2111537278489153</v>
       </c>
-      <c r="AM148" s="188">
+      <c r="AO148" s="188">
         <f>STDEV(AI148:AI150)</f>
         <v>4.3139085245177622E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:40" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:42" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>49</v>
       </c>
@@ -18758,10 +18991,12 @@
       </c>
       <c r="AJ149" s="88"/>
       <c r="AK149" s="88"/>
-      <c r="AL149" s="184"/>
-      <c r="AM149" s="185"/>
+      <c r="AL149" s="88"/>
+      <c r="AM149" s="88"/>
+      <c r="AN149" s="184"/>
+      <c r="AO149" s="185"/>
     </row>
-    <row r="150" spans="1:40" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:42" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
         <v>49</v>
       </c>
@@ -18868,10 +19103,12 @@
       </c>
       <c r="AJ150" s="88"/>
       <c r="AK150" s="88"/>
-      <c r="AL150" s="184"/>
-      <c r="AM150" s="185"/>
+      <c r="AL150" s="88"/>
+      <c r="AM150" s="88"/>
+      <c r="AN150" s="184"/>
+      <c r="AO150" s="185"/>
     </row>
-    <row r="151" spans="1:40" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:42" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
         <v>184</v>
       </c>
@@ -18978,10 +19215,12 @@
       </c>
       <c r="AJ151" s="88"/>
       <c r="AK151" s="88"/>
-      <c r="AL151" s="184"/>
-      <c r="AM151" s="185"/>
+      <c r="AL151" s="88"/>
+      <c r="AM151" s="88"/>
+      <c r="AN151" s="184"/>
+      <c r="AO151" s="185"/>
     </row>
-    <row r="152" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="45" t="s">
         <v>285</v>
       </c>
@@ -19098,16 +19337,18 @@
         <f>STDEV(AI152:AI154)</f>
         <v>13.990572708484562</v>
       </c>
-      <c r="AL152" s="187">
+      <c r="AL152" s="167"/>
+      <c r="AM152" s="167"/>
+      <c r="AN152" s="187">
         <f>AVERAGE(AI152:AI154)-AVERAGE(AI155)</f>
         <v>11.29908753353253</v>
       </c>
-      <c r="AM152" s="188">
+      <c r="AO152" s="188">
         <f>STDEV(AI152:AI154)</f>
         <v>13.990572708484562</v>
       </c>
     </row>
-    <row r="153" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="45" t="s">
         <v>285</v>
       </c>
@@ -19220,10 +19461,12 @@
       </c>
       <c r="AJ153" s="101"/>
       <c r="AK153" s="101"/>
-      <c r="AL153" s="184"/>
-      <c r="AM153" s="185"/>
+      <c r="AL153" s="101"/>
+      <c r="AM153" s="101"/>
+      <c r="AN153" s="184"/>
+      <c r="AO153" s="185"/>
     </row>
-    <row r="154" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="45" t="s">
         <v>285</v>
       </c>
@@ -19334,10 +19577,12 @@
       </c>
       <c r="AJ154" s="101"/>
       <c r="AK154" s="101"/>
-      <c r="AL154" s="184"/>
-      <c r="AM154" s="185"/>
+      <c r="AL154" s="101"/>
+      <c r="AM154" s="101"/>
+      <c r="AN154" s="184"/>
+      <c r="AO154" s="185"/>
     </row>
-    <row r="155" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="45" t="s">
         <v>286</v>
       </c>
@@ -19448,10 +19693,12 @@
       </c>
       <c r="AJ155" s="101"/>
       <c r="AK155" s="101"/>
-      <c r="AL155" s="184"/>
-      <c r="AM155" s="185"/>
+      <c r="AL155" s="101"/>
+      <c r="AM155" s="101"/>
+      <c r="AN155" s="184"/>
+      <c r="AO155" s="185"/>
     </row>
-    <row r="156" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="28" t="s">
         <v>287</v>
       </c>
@@ -19568,17 +19815,19 @@
         <f>STDEV(AI156:AI158)</f>
         <v>3.1022017490816469</v>
       </c>
-      <c r="AL156" s="189">
+      <c r="AL156" s="120"/>
+      <c r="AM156" s="120"/>
+      <c r="AN156" s="189">
         <f>AVERAGE(AI156:AI157)-AVERAGE(0)</f>
         <v>11.33550583054669</v>
       </c>
-      <c r="AM156" s="190">
+      <c r="AO156" s="190">
         <f>STDEV(AI156:AI158)</f>
         <v>3.1022017490816469</v>
       </c>
-      <c r="AN156" s="84"/>
+      <c r="AP156" s="84"/>
     </row>
-    <row r="157" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="28" t="s">
         <v>287</v>
       </c>
@@ -19689,11 +19938,13 @@
       </c>
       <c r="AJ157" s="88"/>
       <c r="AK157" s="88"/>
-      <c r="AL157" s="184"/>
-      <c r="AM157" s="185"/>
-      <c r="AN157" s="84"/>
+      <c r="AL157" s="88"/>
+      <c r="AM157" s="88"/>
+      <c r="AN157" s="184"/>
+      <c r="AO157" s="185"/>
+      <c r="AP157" s="84"/>
     </row>
-    <row r="158" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="45" t="s">
         <v>288</v>
       </c>
@@ -19810,16 +20061,18 @@
         <f>STDEV(AI158:AI160)</f>
         <v>0.72805315862638165</v>
       </c>
-      <c r="AL158" s="187">
+      <c r="AL158" s="167"/>
+      <c r="AM158" s="167"/>
+      <c r="AN158" s="187">
         <f>AVERAGE(AI158:AI160)-AVERAGE(AI161)</f>
         <v>15.289253812495144</v>
       </c>
-      <c r="AM158" s="188">
+      <c r="AO158" s="188">
         <f>STDEV(AI158:AI160)</f>
         <v>0.72805315862638165</v>
       </c>
     </row>
-    <row r="159" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="45" t="s">
         <v>288</v>
       </c>
@@ -19930,10 +20183,12 @@
       </c>
       <c r="AJ159" s="101"/>
       <c r="AK159" s="101"/>
-      <c r="AL159" s="184"/>
-      <c r="AM159" s="185"/>
+      <c r="AL159" s="101"/>
+      <c r="AM159" s="101"/>
+      <c r="AN159" s="184"/>
+      <c r="AO159" s="185"/>
     </row>
-    <row r="160" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="45" t="s">
         <v>288</v>
       </c>
@@ -20044,10 +20299,12 @@
       </c>
       <c r="AJ160" s="101"/>
       <c r="AK160" s="101"/>
-      <c r="AL160" s="184"/>
-      <c r="AM160" s="185"/>
+      <c r="AL160" s="101"/>
+      <c r="AM160" s="101"/>
+      <c r="AN160" s="184"/>
+      <c r="AO160" s="185"/>
     </row>
-    <row r="161" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="45" t="s">
         <v>289</v>
       </c>
@@ -20158,10 +20415,12 @@
       </c>
       <c r="AJ161" s="101"/>
       <c r="AK161" s="101"/>
-      <c r="AL161" s="184"/>
-      <c r="AM161" s="185"/>
+      <c r="AL161" s="101"/>
+      <c r="AM161" s="101"/>
+      <c r="AN161" s="184"/>
+      <c r="AO161" s="185"/>
     </row>
-    <row r="162" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="28" t="s">
         <v>290</v>
       </c>
@@ -20278,17 +20537,19 @@
         <f>STDEV(AI162:AI164)</f>
         <v>1.804094877941018</v>
       </c>
-      <c r="AL162" s="187">
+      <c r="AL162" s="116"/>
+      <c r="AM162" s="116"/>
+      <c r="AN162" s="187">
         <f>AVERAGE(AI162:AI164)-AVERAGE(AI165)</f>
         <v>19.151633403611232</v>
       </c>
-      <c r="AM162" s="188">
+      <c r="AO162" s="188">
         <f>STDEV(AI162:AI164)</f>
         <v>1.804094877941018</v>
       </c>
-      <c r="AN162" s="84"/>
+      <c r="AP162" s="84"/>
     </row>
-    <row r="163" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="28" t="s">
         <v>290</v>
       </c>
@@ -20399,11 +20660,13 @@
       </c>
       <c r="AJ163" s="88"/>
       <c r="AK163" s="88"/>
-      <c r="AL163" s="184"/>
-      <c r="AM163" s="185"/>
-      <c r="AN163" s="84"/>
+      <c r="AL163" s="88"/>
+      <c r="AM163" s="88"/>
+      <c r="AN163" s="184"/>
+      <c r="AO163" s="185"/>
+      <c r="AP163" s="84"/>
     </row>
-    <row r="164" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="28" t="s">
         <v>290</v>
       </c>
@@ -20514,11 +20777,13 @@
       </c>
       <c r="AJ164" s="88"/>
       <c r="AK164" s="88"/>
-      <c r="AL164" s="184"/>
-      <c r="AM164" s="185"/>
-      <c r="AN164" s="84"/>
+      <c r="AL164" s="88"/>
+      <c r="AM164" s="88"/>
+      <c r="AN164" s="184"/>
+      <c r="AO164" s="185"/>
+      <c r="AP164" s="84"/>
     </row>
-    <row r="165" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="28" t="s">
         <v>291</v>
       </c>
@@ -20631,11 +20896,13 @@
       </c>
       <c r="AJ165" s="88"/>
       <c r="AK165" s="88"/>
-      <c r="AL165" s="184"/>
-      <c r="AM165" s="185"/>
-      <c r="AN165" s="84"/>
+      <c r="AL165" s="88"/>
+      <c r="AM165" s="88"/>
+      <c r="AN165" s="184"/>
+      <c r="AO165" s="185"/>
+      <c r="AP165" s="84"/>
     </row>
-    <row r="166" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="45" t="s">
         <v>292</v>
       </c>
@@ -20752,16 +21019,18 @@
         <f>STDEV(AI166:AI168)</f>
         <v>2.7590323501681642</v>
       </c>
-      <c r="AL166" s="187">
+      <c r="AL166" s="167"/>
+      <c r="AM166" s="167"/>
+      <c r="AN166" s="187">
         <f>AVERAGE(AI166:AI168)-AVERAGE(AI169)</f>
         <v>32.611581774976749</v>
       </c>
-      <c r="AM166" s="188">
+      <c r="AO166" s="188">
         <f>STDEV(AI166:AI168)</f>
         <v>2.7590323501681642</v>
       </c>
     </row>
-    <row r="167" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="45" t="s">
         <v>292</v>
       </c>
@@ -20872,10 +21141,12 @@
       </c>
       <c r="AJ167" s="101"/>
       <c r="AK167" s="101"/>
-      <c r="AL167" s="184"/>
-      <c r="AM167" s="185"/>
+      <c r="AL167" s="101"/>
+      <c r="AM167" s="101"/>
+      <c r="AN167" s="184"/>
+      <c r="AO167" s="185"/>
     </row>
-    <row r="168" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="45" t="s">
         <v>292</v>
       </c>
@@ -20986,10 +21257,12 @@
       </c>
       <c r="AJ168" s="101"/>
       <c r="AK168" s="101"/>
-      <c r="AL168" s="184"/>
-      <c r="AM168" s="185"/>
+      <c r="AL168" s="101"/>
+      <c r="AM168" s="101"/>
+      <c r="AN168" s="184"/>
+      <c r="AO168" s="185"/>
     </row>
-    <row r="169" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="45" t="s">
         <v>293</v>
       </c>
@@ -21100,10 +21373,12 @@
       </c>
       <c r="AJ169" s="101"/>
       <c r="AK169" s="101"/>
-      <c r="AL169" s="184"/>
-      <c r="AM169" s="185"/>
+      <c r="AL169" s="101"/>
+      <c r="AM169" s="101"/>
+      <c r="AN169" s="184"/>
+      <c r="AO169" s="185"/>
     </row>
-    <row r="170" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="36" t="s">
         <v>51</v>
       </c>
@@ -21220,16 +21495,18 @@
         <f>STDEV(AI170:AI172)</f>
         <v>0.60239997365851816</v>
       </c>
-      <c r="AL170" s="187">
+      <c r="AL170" s="167"/>
+      <c r="AM170" s="167"/>
+      <c r="AN170" s="187">
         <f>AVERAGE(AI170:AI172)-AVERAGE(AI173)</f>
         <v>8.6681439746080766</v>
       </c>
-      <c r="AM170" s="188">
+      <c r="AO170" s="188">
         <f>STDEV(AI170:AI172)</f>
         <v>0.60239997365851816</v>
       </c>
     </row>
-    <row r="171" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="36" t="s">
         <v>51</v>
       </c>
@@ -21340,10 +21617,12 @@
       </c>
       <c r="AJ171" s="101"/>
       <c r="AK171" s="101"/>
-      <c r="AL171" s="184"/>
-      <c r="AM171" s="185"/>
+      <c r="AL171" s="101"/>
+      <c r="AM171" s="101"/>
+      <c r="AN171" s="184"/>
+      <c r="AO171" s="185"/>
     </row>
-    <row r="172" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="36" t="s">
         <v>51</v>
       </c>
@@ -21454,10 +21733,12 @@
       </c>
       <c r="AJ172" s="167"/>
       <c r="AK172" s="167"/>
-      <c r="AL172" s="187"/>
-      <c r="AM172" s="188"/>
+      <c r="AL172" s="167"/>
+      <c r="AM172" s="167"/>
+      <c r="AN172" s="187"/>
+      <c r="AO172" s="188"/>
     </row>
-    <row r="173" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="36" t="s">
         <v>185</v>
       </c>
@@ -21568,10 +21849,12 @@
       </c>
       <c r="AJ173" s="101"/>
       <c r="AK173" s="101"/>
-      <c r="AL173" s="184"/>
-      <c r="AM173" s="185"/>
+      <c r="AL173" s="101"/>
+      <c r="AM173" s="101"/>
+      <c r="AN173" s="184"/>
+      <c r="AO173" s="185"/>
     </row>
-    <row r="174" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
         <v>53</v>
       </c>
@@ -21688,17 +21971,19 @@
         <f>STDEV(AI174:AI176)</f>
         <v>5.451268234173142</v>
       </c>
-      <c r="AL174" s="187">
+      <c r="AL174" s="116"/>
+      <c r="AM174" s="116"/>
+      <c r="AN174" s="187">
         <f>AVERAGE(AI174:AI176)-AVERAGE(AI177)</f>
         <v>5.7425518467997785</v>
       </c>
-      <c r="AM174" s="188">
+      <c r="AO174" s="188">
         <f>STDEV(AI174:AI176)</f>
         <v>5.451268234173142</v>
       </c>
-      <c r="AN174" s="83"/>
+      <c r="AP174" s="83"/>
     </row>
-    <row r="175" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="14" t="s">
         <v>53</v>
       </c>
@@ -21809,11 +22094,13 @@
       </c>
       <c r="AJ175" s="88"/>
       <c r="AK175" s="88"/>
-      <c r="AL175" s="184"/>
-      <c r="AM175" s="185"/>
-      <c r="AN175" s="83"/>
+      <c r="AL175" s="88"/>
+      <c r="AM175" s="88"/>
+      <c r="AN175" s="184"/>
+      <c r="AO175" s="185"/>
+      <c r="AP175" s="83"/>
     </row>
-    <row r="176" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="14" t="s">
         <v>53</v>
       </c>
@@ -21923,11 +22210,13 @@
       </c>
       <c r="AJ176" s="88"/>
       <c r="AK176" s="88"/>
-      <c r="AL176" s="184"/>
-      <c r="AM176" s="185"/>
-      <c r="AN176" s="83"/>
+      <c r="AL176" s="88"/>
+      <c r="AM176" s="88"/>
+      <c r="AN176" s="184"/>
+      <c r="AO176" s="185"/>
+      <c r="AP176" s="83"/>
     </row>
-    <row r="177" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
         <v>186</v>
       </c>
@@ -22038,11 +22327,13 @@
       </c>
       <c r="AJ177" s="88"/>
       <c r="AK177" s="88"/>
-      <c r="AL177" s="184"/>
-      <c r="AM177" s="185"/>
-      <c r="AN177" s="83"/>
+      <c r="AL177" s="88"/>
+      <c r="AM177" s="88"/>
+      <c r="AN177" s="184"/>
+      <c r="AO177" s="185"/>
+      <c r="AP177" s="83"/>
     </row>
-    <row r="178" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="36" t="s">
         <v>54</v>
       </c>
@@ -22159,16 +22450,18 @@
         <f>STDEV(AI178:AI180)</f>
         <v>0.13857470336714137</v>
       </c>
-      <c r="AL178" s="187">
+      <c r="AL178" s="167"/>
+      <c r="AM178" s="167"/>
+      <c r="AN178" s="187">
         <f>AVERAGE(AI178:AI180)-AVERAGE(AI181)</f>
         <v>6.6243219140724472</v>
       </c>
-      <c r="AM178" s="188">
+      <c r="AO178" s="188">
         <f>STDEV(AI178:AI180)</f>
         <v>0.13857470336714137</v>
       </c>
     </row>
-    <row r="179" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="36" t="s">
         <v>54</v>
       </c>
@@ -22279,10 +22572,12 @@
       </c>
       <c r="AJ179" s="101"/>
       <c r="AK179" s="101"/>
-      <c r="AL179" s="184"/>
-      <c r="AM179" s="185"/>
+      <c r="AL179" s="101"/>
+      <c r="AM179" s="101"/>
+      <c r="AN179" s="184"/>
+      <c r="AO179" s="185"/>
     </row>
-    <row r="180" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="36" t="s">
         <v>54</v>
       </c>
@@ -22393,10 +22688,12 @@
       </c>
       <c r="AJ180" s="101"/>
       <c r="AK180" s="101"/>
-      <c r="AL180" s="184"/>
-      <c r="AM180" s="185"/>
+      <c r="AL180" s="101"/>
+      <c r="AM180" s="101"/>
+      <c r="AN180" s="184"/>
+      <c r="AO180" s="185"/>
     </row>
-    <row r="181" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="36" t="s">
         <v>187</v>
       </c>
@@ -22507,10 +22804,12 @@
       </c>
       <c r="AJ181" s="101"/>
       <c r="AK181" s="101"/>
-      <c r="AL181" s="184"/>
-      <c r="AM181" s="185"/>
+      <c r="AL181" s="101"/>
+      <c r="AM181" s="101"/>
+      <c r="AN181" s="184"/>
+      <c r="AO181" s="185"/>
     </row>
-    <row r="182" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
         <v>55</v>
       </c>
@@ -22627,17 +22926,19 @@
         <f>STDEV(AI182:AI184)</f>
         <v>0.5839054360666831</v>
       </c>
-      <c r="AL182" s="187">
+      <c r="AL182" s="116"/>
+      <c r="AM182" s="116"/>
+      <c r="AN182" s="187">
         <f>AVERAGE(AI182:AI184)-AVERAGE(AI185)</f>
         <v>5.0813539608053366</v>
       </c>
-      <c r="AM182" s="188">
+      <c r="AO182" s="188">
         <f>STDEV(AI182:AI184)</f>
         <v>0.5839054360666831</v>
       </c>
-      <c r="AN182" s="83"/>
+      <c r="AP182" s="83"/>
     </row>
-    <row r="183" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="14" t="s">
         <v>55</v>
       </c>
@@ -22748,11 +23049,13 @@
       </c>
       <c r="AJ183" s="88"/>
       <c r="AK183" s="88"/>
-      <c r="AL183" s="184"/>
-      <c r="AM183" s="185"/>
-      <c r="AN183" s="83"/>
+      <c r="AL183" s="88"/>
+      <c r="AM183" s="88"/>
+      <c r="AN183" s="184"/>
+      <c r="AO183" s="185"/>
+      <c r="AP183" s="83"/>
     </row>
-    <row r="184" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="14" t="s">
         <v>55</v>
       </c>
@@ -22863,11 +23166,13 @@
       </c>
       <c r="AJ184" s="88"/>
       <c r="AK184" s="88"/>
-      <c r="AL184" s="184"/>
-      <c r="AM184" s="185"/>
-      <c r="AN184" s="83"/>
+      <c r="AL184" s="88"/>
+      <c r="AM184" s="88"/>
+      <c r="AN184" s="184"/>
+      <c r="AO184" s="185"/>
+      <c r="AP184" s="83"/>
     </row>
-    <row r="185" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="14" t="s">
         <v>188</v>
       </c>
@@ -22978,11 +23283,13 @@
       </c>
       <c r="AJ185" s="88"/>
       <c r="AK185" s="88"/>
-      <c r="AL185" s="184"/>
-      <c r="AM185" s="185"/>
-      <c r="AN185" s="83"/>
+      <c r="AL185" s="88"/>
+      <c r="AM185" s="88"/>
+      <c r="AN185" s="184"/>
+      <c r="AO185" s="185"/>
+      <c r="AP185" s="83"/>
     </row>
-    <row r="186" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="36" t="s">
         <v>56</v>
       </c>
@@ -23099,16 +23406,18 @@
         <f>STDEV(AI186:AI188)</f>
         <v>0.4684020728810937</v>
       </c>
-      <c r="AL186" s="187">
+      <c r="AL186" s="167"/>
+      <c r="AM186" s="167"/>
+      <c r="AN186" s="187">
         <f>AVERAGE(AI186:AI188)-AVERAGE(AI189)</f>
         <v>4.9329730493978365</v>
       </c>
-      <c r="AM186" s="188">
+      <c r="AO186" s="188">
         <f>STDEV(AI186:AI188)</f>
         <v>0.4684020728810937</v>
       </c>
     </row>
-    <row r="187" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="36" t="s">
         <v>56</v>
       </c>
@@ -23219,10 +23528,12 @@
       </c>
       <c r="AJ187" s="101"/>
       <c r="AK187" s="101"/>
-      <c r="AL187" s="184"/>
-      <c r="AM187" s="185"/>
+      <c r="AL187" s="101"/>
+      <c r="AM187" s="101"/>
+      <c r="AN187" s="184"/>
+      <c r="AO187" s="185"/>
     </row>
-    <row r="188" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="36" t="s">
         <v>56</v>
       </c>
@@ -23333,10 +23644,12 @@
       </c>
       <c r="AJ188" s="101"/>
       <c r="AK188" s="101"/>
-      <c r="AL188" s="184"/>
-      <c r="AM188" s="185"/>
+      <c r="AL188" s="101"/>
+      <c r="AM188" s="101"/>
+      <c r="AN188" s="184"/>
+      <c r="AO188" s="185"/>
     </row>
-    <row r="189" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="36" t="s">
         <v>189</v>
       </c>
@@ -23447,10 +23760,12 @@
       </c>
       <c r="AJ189" s="101"/>
       <c r="AK189" s="101"/>
-      <c r="AL189" s="184"/>
-      <c r="AM189" s="185"/>
+      <c r="AL189" s="101"/>
+      <c r="AM189" s="101"/>
+      <c r="AN189" s="184"/>
+      <c r="AO189" s="185"/>
     </row>
-    <row r="190" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
         <v>57</v>
       </c>
@@ -23567,17 +23882,19 @@
         <f>STDEV(AI190:AI192)</f>
         <v>1.6415207058793093</v>
       </c>
-      <c r="AL190" s="187">
+      <c r="AL190" s="116"/>
+      <c r="AM190" s="116"/>
+      <c r="AN190" s="187">
         <f>AVERAGE(AI190:AI192)-AVERAGE(AI193)</f>
         <v>44.568071690615476</v>
       </c>
-      <c r="AM190" s="188">
+      <c r="AO190" s="188">
         <f>STDEV(AI190:AI192)</f>
         <v>1.6415207058793093</v>
       </c>
-      <c r="AN190" s="83"/>
+      <c r="AP190" s="83"/>
     </row>
-    <row r="191" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
         <v>57</v>
       </c>
@@ -23688,11 +24005,13 @@
       </c>
       <c r="AJ191" s="88"/>
       <c r="AK191" s="88"/>
-      <c r="AL191" s="184"/>
-      <c r="AM191" s="185"/>
-      <c r="AN191" s="83"/>
+      <c r="AL191" s="88"/>
+      <c r="AM191" s="88"/>
+      <c r="AN191" s="184"/>
+      <c r="AO191" s="185"/>
+      <c r="AP191" s="83"/>
     </row>
-    <row r="192" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
         <v>57</v>
       </c>
@@ -23803,11 +24122,13 @@
       </c>
       <c r="AJ192" s="88"/>
       <c r="AK192" s="88"/>
-      <c r="AL192" s="184"/>
-      <c r="AM192" s="185"/>
-      <c r="AN192" s="83"/>
+      <c r="AL192" s="88"/>
+      <c r="AM192" s="88"/>
+      <c r="AN192" s="184"/>
+      <c r="AO192" s="185"/>
+      <c r="AP192" s="83"/>
     </row>
-    <row r="193" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="14" t="s">
         <v>190</v>
       </c>
@@ -23918,11 +24239,13 @@
       </c>
       <c r="AJ193" s="88"/>
       <c r="AK193" s="88"/>
-      <c r="AL193" s="184"/>
-      <c r="AM193" s="185"/>
-      <c r="AN193" s="83"/>
+      <c r="AL193" s="88"/>
+      <c r="AM193" s="88"/>
+      <c r="AN193" s="184"/>
+      <c r="AO193" s="185"/>
+      <c r="AP193" s="83"/>
     </row>
-    <row r="194" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="36" t="s">
         <v>59</v>
       </c>
@@ -24039,16 +24362,18 @@
         <f>STDEV(AI194:AI196)</f>
         <v>4.7850464863942177</v>
       </c>
-      <c r="AL194" s="187">
+      <c r="AL194" s="167"/>
+      <c r="AM194" s="167"/>
+      <c r="AN194" s="187">
         <f>AVERAGE(AI194:AI196)-AVERAGE(AI197)</f>
         <v>45.769691266601114</v>
       </c>
-      <c r="AM194" s="188">
+      <c r="AO194" s="188">
         <f>STDEV(AI194:AI196)</f>
         <v>4.7850464863942177</v>
       </c>
     </row>
-    <row r="195" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="36" t="s">
         <v>59</v>
       </c>
@@ -24159,10 +24484,12 @@
       </c>
       <c r="AJ195" s="101"/>
       <c r="AK195" s="101"/>
-      <c r="AL195" s="184"/>
-      <c r="AM195" s="185"/>
+      <c r="AL195" s="101"/>
+      <c r="AM195" s="101"/>
+      <c r="AN195" s="184"/>
+      <c r="AO195" s="185"/>
     </row>
-    <row r="196" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="36" t="s">
         <v>59</v>
       </c>
@@ -24273,10 +24600,12 @@
       </c>
       <c r="AJ196" s="101"/>
       <c r="AK196" s="101"/>
-      <c r="AL196" s="184"/>
-      <c r="AM196" s="185"/>
+      <c r="AL196" s="101"/>
+      <c r="AM196" s="101"/>
+      <c r="AN196" s="184"/>
+      <c r="AO196" s="185"/>
     </row>
-    <row r="197" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="36" t="s">
         <v>191</v>
       </c>
@@ -24387,10 +24716,12 @@
       </c>
       <c r="AJ197" s="101"/>
       <c r="AK197" s="101"/>
-      <c r="AL197" s="184"/>
-      <c r="AM197" s="185"/>
+      <c r="AL197" s="101"/>
+      <c r="AM197" s="101"/>
+      <c r="AN197" s="184"/>
+      <c r="AO197" s="185"/>
     </row>
-    <row r="198" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="28" t="s">
         <v>60</v>
       </c>
@@ -24506,17 +24837,19 @@
         <f>STDEV(AI198:AI200)</f>
         <v>13.6694096598554</v>
       </c>
-      <c r="AL198" s="187">
+      <c r="AL198" s="116"/>
+      <c r="AM198" s="116"/>
+      <c r="AN198" s="187">
         <f>AVERAGE(AI198:AI200)-AVERAGE(AI201)</f>
         <v>15.757015733758454</v>
       </c>
-      <c r="AM198" s="188">
+      <c r="AO198" s="188">
         <f>STDEV(AI198:AI200)</f>
         <v>13.6694096598554</v>
       </c>
-      <c r="AN198" s="84"/>
+      <c r="AP198" s="84"/>
     </row>
-    <row r="199" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>60</v>
       </c>
@@ -24627,11 +24960,13 @@
       </c>
       <c r="AJ199" s="88"/>
       <c r="AK199" s="88"/>
-      <c r="AL199" s="184"/>
-      <c r="AM199" s="185"/>
-      <c r="AN199" s="83"/>
+      <c r="AL199" s="88"/>
+      <c r="AM199" s="88"/>
+      <c r="AN199" s="184"/>
+      <c r="AO199" s="185"/>
+      <c r="AP199" s="83"/>
     </row>
-    <row r="200" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="14" t="s">
         <v>60</v>
       </c>
@@ -24742,11 +25077,13 @@
       </c>
       <c r="AJ200" s="88"/>
       <c r="AK200" s="88"/>
-      <c r="AL200" s="184"/>
-      <c r="AM200" s="185"/>
-      <c r="AN200" s="83"/>
+      <c r="AL200" s="88"/>
+      <c r="AM200" s="88"/>
+      <c r="AN200" s="184"/>
+      <c r="AO200" s="185"/>
+      <c r="AP200" s="83"/>
     </row>
-    <row r="201" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="14" t="s">
         <v>192</v>
       </c>
@@ -24857,11 +25194,13 @@
       </c>
       <c r="AJ201" s="88"/>
       <c r="AK201" s="88"/>
-      <c r="AL201" s="184"/>
-      <c r="AM201" s="185"/>
-      <c r="AN201" s="83"/>
+      <c r="AL201" s="88"/>
+      <c r="AM201" s="88"/>
+      <c r="AN201" s="184"/>
+      <c r="AO201" s="185"/>
+      <c r="AP201" s="83"/>
     </row>
-    <row r="202" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="45" t="s">
         <v>61</v>
       </c>
@@ -24980,16 +25319,18 @@
         <f>STDEV(AI202:AI204)</f>
         <v>5.9399658366283958</v>
       </c>
-      <c r="AL202" s="189">
+      <c r="AL202" s="168"/>
+      <c r="AM202" s="168"/>
+      <c r="AN202" s="189">
         <f>AVERAGE(AI202:AI203)-AVERAGE(0)</f>
         <v>0.28228180614311699</v>
       </c>
-      <c r="AM202" s="190">
+      <c r="AO202" s="190">
         <f>STDEV(AI202:AI204)</f>
         <v>5.9399658366283958</v>
       </c>
     </row>
-    <row r="203" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="45" t="s">
         <v>61</v>
       </c>
@@ -25099,10 +25440,12 @@
       </c>
       <c r="AJ203" s="101"/>
       <c r="AK203" s="101"/>
-      <c r="AL203" s="184"/>
-      <c r="AM203" s="185"/>
+      <c r="AL203" s="101"/>
+      <c r="AM203" s="101"/>
+      <c r="AN203" s="184"/>
+      <c r="AO203" s="185"/>
     </row>
-    <row r="204" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="36" t="s">
         <v>61</v>
       </c>
@@ -25219,16 +25562,18 @@
         <f>STDEV(AI204:AI206)</f>
         <v>6.0950231138624567</v>
       </c>
-      <c r="AL204" s="187">
+      <c r="AL204" s="167"/>
+      <c r="AM204" s="167"/>
+      <c r="AN204" s="187">
         <f>AVERAGE(AI204:AI205)-AVERAGE(AI206)</f>
         <v>10.531329514654779</v>
       </c>
-      <c r="AM204" s="188">
+      <c r="AO204" s="188">
         <f>STDEV(AI204:AI205)</f>
         <v>0.59945471294831087</v>
       </c>
     </row>
-    <row r="205" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="36" t="s">
         <v>61</v>
       </c>
@@ -25339,10 +25684,12 @@
       </c>
       <c r="AJ205" s="101"/>
       <c r="AK205" s="101"/>
-      <c r="AL205" s="184"/>
-      <c r="AM205" s="185"/>
+      <c r="AL205" s="101"/>
+      <c r="AM205" s="101"/>
+      <c r="AN205" s="184"/>
+      <c r="AO205" s="185"/>
     </row>
-    <row r="206" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="36" t="s">
         <v>193</v>
       </c>
@@ -25453,10 +25800,12 @@
       </c>
       <c r="AJ206" s="101"/>
       <c r="AK206" s="101"/>
-      <c r="AL206" s="184"/>
-      <c r="AM206" s="185"/>
+      <c r="AL206" s="101"/>
+      <c r="AM206" s="101"/>
+      <c r="AN206" s="184"/>
+      <c r="AO206" s="185"/>
     </row>
-    <row r="207" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="14" t="s">
         <v>62</v>
       </c>
@@ -25573,17 +25922,19 @@
         <f>STDEV(AI207:AI209)</f>
         <v>2.094257890849212</v>
       </c>
-      <c r="AL207" s="187">
+      <c r="AL207" s="116"/>
+      <c r="AM207" s="116"/>
+      <c r="AN207" s="187">
         <f>AVERAGE(AI207:AI208)-AVERAGE(AI209)</f>
         <v>3.6273371493636848</v>
       </c>
-      <c r="AM207" s="188">
+      <c r="AO207" s="188">
         <f>STDEV(AI207:AI208)</f>
         <v>1.0756238459401945E-2</v>
       </c>
-      <c r="AN207" s="83"/>
+      <c r="AP207" s="83"/>
     </row>
-    <row r="208" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="14" t="s">
         <v>62</v>
       </c>
@@ -25694,11 +26045,13 @@
       </c>
       <c r="AJ208" s="116"/>
       <c r="AK208" s="116"/>
-      <c r="AL208" s="187"/>
-      <c r="AM208" s="188"/>
-      <c r="AN208" s="83"/>
+      <c r="AL208" s="116"/>
+      <c r="AM208" s="116"/>
+      <c r="AN208" s="187"/>
+      <c r="AO208" s="188"/>
+      <c r="AP208" s="83"/>
     </row>
-    <row r="209" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="14" t="s">
         <v>148</v>
       </c>
@@ -25809,11 +26162,13 @@
       </c>
       <c r="AJ209" s="88"/>
       <c r="AK209" s="88"/>
-      <c r="AL209" s="184"/>
-      <c r="AM209" s="185"/>
-      <c r="AN209" s="83"/>
+      <c r="AL209" s="88"/>
+      <c r="AM209" s="88"/>
+      <c r="AN209" s="184"/>
+      <c r="AO209" s="185"/>
+      <c r="AP209" s="83"/>
     </row>
-    <row r="210" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="28" t="s">
         <v>62</v>
       </c>
@@ -25926,11 +26281,13 @@
       </c>
       <c r="AJ210" s="88"/>
       <c r="AK210" s="88"/>
-      <c r="AL210" s="184"/>
-      <c r="AM210" s="185"/>
-      <c r="AN210" s="84"/>
+      <c r="AL210" s="88"/>
+      <c r="AM210" s="88"/>
+      <c r="AN210" s="184"/>
+      <c r="AO210" s="185"/>
+      <c r="AP210" s="84"/>
     </row>
-    <row r="211" spans="1:40" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:42" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="28" t="s">
         <v>63</v>
       </c>
@@ -26043,11 +26400,13 @@
       </c>
       <c r="AJ211" s="88"/>
       <c r="AK211" s="88"/>
-      <c r="AL211" s="184"/>
-      <c r="AM211" s="185"/>
-      <c r="AN211" s="84"/>
+      <c r="AL211" s="88"/>
+      <c r="AM211" s="88"/>
+      <c r="AN211" s="184"/>
+      <c r="AO211" s="185"/>
+      <c r="AP211" s="84"/>
     </row>
-    <row r="212" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="36" t="s">
         <v>63</v>
       </c>
@@ -26164,16 +26523,18 @@
         <f>STDEV(AI212:AI214)</f>
         <v>0.66627378441934892</v>
       </c>
-      <c r="AL212" s="187">
+      <c r="AL212" s="167"/>
+      <c r="AM212" s="167"/>
+      <c r="AN212" s="187">
         <f>AVERAGE(AI212:AI213)-AVERAGE(AI214)</f>
         <v>1.007817673541586</v>
       </c>
-      <c r="AM212" s="188">
+      <c r="AO212" s="188">
         <f>STDEV(AI212:AI213)</f>
         <v>0.45903217338996255</v>
       </c>
     </row>
-    <row r="213" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="36" t="s">
         <v>149</v>
       </c>
@@ -26284,10 +26645,12 @@
       </c>
       <c r="AJ213" s="167"/>
       <c r="AK213" s="167"/>
-      <c r="AL213" s="187"/>
-      <c r="AM213" s="188"/>
+      <c r="AL213" s="167"/>
+      <c r="AM213" s="167"/>
+      <c r="AN213" s="187"/>
+      <c r="AO213" s="188"/>
     </row>
-    <row r="214" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="36" t="s">
         <v>147</v>
       </c>
@@ -26398,10 +26761,12 @@
       </c>
       <c r="AJ214" s="101"/>
       <c r="AK214" s="101"/>
-      <c r="AL214" s="184"/>
-      <c r="AM214" s="185"/>
+      <c r="AL214" s="101"/>
+      <c r="AM214" s="101"/>
+      <c r="AN214" s="184"/>
+      <c r="AO214" s="185"/>
     </row>
-    <row r="215" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="14" t="s">
         <v>64</v>
       </c>
@@ -26518,17 +26883,19 @@
         <f>STDEV(AI215:AI217)</f>
         <v>4.7453708938279302</v>
       </c>
-      <c r="AL215" s="187">
+      <c r="AL215" s="116"/>
+      <c r="AM215" s="116"/>
+      <c r="AN215" s="187">
         <f>AVERAGE(AI215:AI217)-AVERAGE(AI218)</f>
         <v>67.160072779068557</v>
       </c>
-      <c r="AM215" s="188">
+      <c r="AO215" s="188">
         <f>STDEV(AI215:AI217)</f>
         <v>4.7453708938279302</v>
       </c>
-      <c r="AN215" s="83"/>
+      <c r="AP215" s="83"/>
     </row>
-    <row r="216" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="14" t="s">
         <v>64</v>
       </c>
@@ -26639,11 +27006,13 @@
       </c>
       <c r="AJ216" s="88"/>
       <c r="AK216" s="88"/>
-      <c r="AL216" s="184"/>
-      <c r="AM216" s="185"/>
-      <c r="AN216" s="83"/>
+      <c r="AL216" s="88"/>
+      <c r="AM216" s="88"/>
+      <c r="AN216" s="184"/>
+      <c r="AO216" s="185"/>
+      <c r="AP216" s="83"/>
     </row>
-    <row r="217" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="14" t="s">
         <v>64</v>
       </c>
@@ -26754,11 +27123,13 @@
       </c>
       <c r="AJ217" s="88"/>
       <c r="AK217" s="88"/>
-      <c r="AL217" s="184"/>
-      <c r="AM217" s="185"/>
-      <c r="AN217" s="83"/>
+      <c r="AL217" s="88"/>
+      <c r="AM217" s="88"/>
+      <c r="AN217" s="184"/>
+      <c r="AO217" s="185"/>
+      <c r="AP217" s="83"/>
     </row>
-    <row r="218" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="14" t="s">
         <v>194</v>
       </c>
@@ -26869,11 +27240,13 @@
       </c>
       <c r="AJ218" s="88"/>
       <c r="AK218" s="88"/>
-      <c r="AL218" s="184"/>
-      <c r="AM218" s="185"/>
-      <c r="AN218" s="83"/>
+      <c r="AL218" s="88"/>
+      <c r="AM218" s="88"/>
+      <c r="AN218" s="184"/>
+      <c r="AO218" s="185"/>
+      <c r="AP218" s="83"/>
     </row>
-    <row r="219" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="36" t="s">
         <v>66</v>
       </c>
@@ -26990,16 +27363,18 @@
         <f>STDEV(AI219:AI221)</f>
         <v>15.983987451965616</v>
       </c>
-      <c r="AL219" s="187">
+      <c r="AL219" s="167"/>
+      <c r="AM219" s="167"/>
+      <c r="AN219" s="187">
         <f>AVERAGE(AI219:AI221)-AVERAGE(AI222)</f>
         <v>49.93465797339995</v>
       </c>
-      <c r="AM219" s="188">
+      <c r="AO219" s="188">
         <f>STDEV(AI219:AI221)</f>
         <v>15.983987451965616</v>
       </c>
     </row>
-    <row r="220" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="36" t="s">
         <v>66</v>
       </c>
@@ -27110,10 +27485,12 @@
       </c>
       <c r="AJ220" s="101"/>
       <c r="AK220" s="101"/>
-      <c r="AL220" s="184"/>
-      <c r="AM220" s="185"/>
+      <c r="AL220" s="101"/>
+      <c r="AM220" s="101"/>
+      <c r="AN220" s="184"/>
+      <c r="AO220" s="185"/>
     </row>
-    <row r="221" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="36" t="s">
         <v>66</v>
       </c>
@@ -27224,10 +27601,12 @@
       </c>
       <c r="AJ221" s="101"/>
       <c r="AK221" s="101"/>
-      <c r="AL221" s="184"/>
-      <c r="AM221" s="185"/>
+      <c r="AL221" s="101"/>
+      <c r="AM221" s="101"/>
+      <c r="AN221" s="184"/>
+      <c r="AO221" s="185"/>
     </row>
-    <row r="222" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="36" t="s">
         <v>150</v>
       </c>
@@ -27338,10 +27717,12 @@
       </c>
       <c r="AJ222" s="101"/>
       <c r="AK222" s="101"/>
-      <c r="AL222" s="184"/>
-      <c r="AM222" s="185"/>
+      <c r="AL222" s="101"/>
+      <c r="AM222" s="101"/>
+      <c r="AN222" s="184"/>
+      <c r="AO222" s="185"/>
     </row>
-    <row r="223" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="14" t="s">
         <v>67</v>
       </c>
@@ -27455,17 +27836,19 @@
         <f>STDEV(AI223:AI225)</f>
         <v>0.89141116919482177</v>
       </c>
-      <c r="AL223" s="187">
+      <c r="AL223" s="116"/>
+      <c r="AM223" s="116"/>
+      <c r="AN223" s="187">
         <f>AVERAGE(AI223:AI225)-AVERAGE(AI226)</f>
         <v>9.4570646119385664</v>
       </c>
-      <c r="AM223" s="188">
+      <c r="AO223" s="188">
         <f>STDEV(AI223:AI225)</f>
         <v>0.89141116919482177</v>
       </c>
-      <c r="AN223" s="83"/>
+      <c r="AP223" s="83"/>
     </row>
-    <row r="224" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="14" t="s">
         <v>67</v>
       </c>
@@ -27573,11 +27956,13 @@
       </c>
       <c r="AJ224" s="88"/>
       <c r="AK224" s="88"/>
-      <c r="AL224" s="184"/>
-      <c r="AM224" s="185"/>
-      <c r="AN224" s="83"/>
+      <c r="AL224" s="88"/>
+      <c r="AM224" s="88"/>
+      <c r="AN224" s="184"/>
+      <c r="AO224" s="185"/>
+      <c r="AP224" s="83"/>
     </row>
-    <row r="225" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="14" t="s">
         <v>67</v>
       </c>
@@ -27685,11 +28070,13 @@
       </c>
       <c r="AJ225" s="88"/>
       <c r="AK225" s="88"/>
-      <c r="AL225" s="184"/>
-      <c r="AM225" s="185"/>
-      <c r="AN225" s="83"/>
+      <c r="AL225" s="88"/>
+      <c r="AM225" s="88"/>
+      <c r="AN225" s="184"/>
+      <c r="AO225" s="185"/>
+      <c r="AP225" s="83"/>
     </row>
-    <row r="226" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="14" t="s">
         <v>195</v>
       </c>
@@ -27797,11 +28184,13 @@
       </c>
       <c r="AJ226" s="88"/>
       <c r="AK226" s="88"/>
-      <c r="AL226" s="184"/>
-      <c r="AM226" s="185"/>
-      <c r="AN226" s="83"/>
+      <c r="AL226" s="88"/>
+      <c r="AM226" s="88"/>
+      <c r="AN226" s="184"/>
+      <c r="AO226" s="185"/>
+      <c r="AP226" s="83"/>
     </row>
-    <row r="227" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="36" t="s">
         <v>68</v>
       </c>
@@ -27915,16 +28304,18 @@
         <f>STDEV(AI227:AI229)</f>
         <v>0.22569855339306444</v>
       </c>
-      <c r="AL227" s="187">
+      <c r="AL227" s="167"/>
+      <c r="AM227" s="167"/>
+      <c r="AN227" s="187">
         <f>AVERAGE(AI227:AI229)-AVERAGE(AI230)</f>
         <v>4.9371742523447715</v>
       </c>
-      <c r="AM227" s="188">
+      <c r="AO227" s="188">
         <f>STDEV(AI227:AI229)</f>
         <v>0.22569855339306444</v>
       </c>
     </row>
-    <row r="228" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="36" t="s">
         <v>68</v>
       </c>
@@ -28032,10 +28423,12 @@
       </c>
       <c r="AJ228" s="101"/>
       <c r="AK228" s="101"/>
-      <c r="AL228" s="184"/>
-      <c r="AM228" s="185"/>
+      <c r="AL228" s="101"/>
+      <c r="AM228" s="101"/>
+      <c r="AN228" s="184"/>
+      <c r="AO228" s="185"/>
     </row>
-    <row r="229" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="36" t="s">
         <v>68</v>
       </c>
@@ -28143,10 +28536,12 @@
       </c>
       <c r="AJ229" s="101"/>
       <c r="AK229" s="101"/>
-      <c r="AL229" s="184"/>
-      <c r="AM229" s="185"/>
+      <c r="AL229" s="101"/>
+      <c r="AM229" s="101"/>
+      <c r="AN229" s="184"/>
+      <c r="AO229" s="185"/>
     </row>
-    <row r="230" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="36" t="s">
         <v>196</v>
       </c>
@@ -28254,10 +28649,12 @@
       </c>
       <c r="AJ230" s="101"/>
       <c r="AK230" s="101"/>
-      <c r="AL230" s="184"/>
-      <c r="AM230" s="185"/>
+      <c r="AL230" s="101"/>
+      <c r="AM230" s="101"/>
+      <c r="AN230" s="184"/>
+      <c r="AO230" s="185"/>
     </row>
-    <row r="231" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
         <v>69</v>
       </c>
@@ -28374,17 +28771,19 @@
         <f>STDEV(AI231:AI233)</f>
         <v>0.18289768153962019</v>
       </c>
-      <c r="AL231" s="187">
+      <c r="AL231" s="116"/>
+      <c r="AM231" s="116"/>
+      <c r="AN231" s="187">
         <f>AVERAGE(AI231:AI233)-AVERAGE(AI234)</f>
         <v>1.8959555009636815</v>
       </c>
-      <c r="AM231" s="188">
+      <c r="AO231" s="188">
         <f>STDEV(AI231:AI233)</f>
         <v>0.18289768153962019</v>
       </c>
-      <c r="AN231" s="83"/>
+      <c r="AP231" s="83"/>
     </row>
-    <row r="232" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="14" t="s">
         <v>69</v>
       </c>
@@ -28495,11 +28894,13 @@
       </c>
       <c r="AJ232" s="88"/>
       <c r="AK232" s="88"/>
-      <c r="AL232" s="184"/>
-      <c r="AM232" s="185"/>
-      <c r="AN232" s="83"/>
+      <c r="AL232" s="88"/>
+      <c r="AM232" s="88"/>
+      <c r="AN232" s="184"/>
+      <c r="AO232" s="185"/>
+      <c r="AP232" s="83"/>
     </row>
-    <row r="233" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="14" t="s">
         <v>69</v>
       </c>
@@ -28610,11 +29011,13 @@
       </c>
       <c r="AJ233" s="88"/>
       <c r="AK233" s="88"/>
-      <c r="AL233" s="184"/>
-      <c r="AM233" s="185"/>
-      <c r="AN233" s="83"/>
+      <c r="AL233" s="88"/>
+      <c r="AM233" s="88"/>
+      <c r="AN233" s="184"/>
+      <c r="AO233" s="185"/>
+      <c r="AP233" s="83"/>
     </row>
-    <row r="234" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="14" t="s">
         <v>197</v>
       </c>
@@ -28725,11 +29128,13 @@
       </c>
       <c r="AJ234" s="88"/>
       <c r="AK234" s="88"/>
-      <c r="AL234" s="184"/>
-      <c r="AM234" s="185"/>
-      <c r="AN234" s="83"/>
+      <c r="AL234" s="88"/>
+      <c r="AM234" s="88"/>
+      <c r="AN234" s="184"/>
+      <c r="AO234" s="185"/>
+      <c r="AP234" s="83"/>
     </row>
-    <row r="235" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="36" t="s">
         <v>151</v>
       </c>
@@ -28846,16 +29251,18 @@
         <f>STDEV(AI235:AI237)</f>
         <v>0.2453452503280652</v>
       </c>
-      <c r="AL235" s="187">
+      <c r="AL235" s="167"/>
+      <c r="AM235" s="167"/>
+      <c r="AN235" s="187">
         <f>AVERAGE(AI235:AI237)-AVERAGE(AI238)</f>
         <v>1.1688121349395171</v>
       </c>
-      <c r="AM235" s="188">
+      <c r="AO235" s="188">
         <f>STDEV(AI235:AI237)</f>
         <v>0.2453452503280652</v>
       </c>
     </row>
-    <row r="236" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="36" t="s">
         <v>70</v>
       </c>
@@ -28966,10 +29373,12 @@
       </c>
       <c r="AJ236" s="101"/>
       <c r="AK236" s="101"/>
-      <c r="AL236" s="184"/>
-      <c r="AM236" s="185"/>
+      <c r="AL236" s="101"/>
+      <c r="AM236" s="101"/>
+      <c r="AN236" s="184"/>
+      <c r="AO236" s="185"/>
     </row>
-    <row r="237" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="36" t="s">
         <v>70</v>
       </c>
@@ -29080,10 +29489,12 @@
       </c>
       <c r="AJ237" s="101"/>
       <c r="AK237" s="101"/>
-      <c r="AL237" s="184"/>
-      <c r="AM237" s="185"/>
+      <c r="AL237" s="101"/>
+      <c r="AM237" s="101"/>
+      <c r="AN237" s="184"/>
+      <c r="AO237" s="185"/>
     </row>
-    <row r="238" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="36" t="s">
         <v>198</v>
       </c>
@@ -29194,10 +29605,12 @@
       </c>
       <c r="AJ238" s="101"/>
       <c r="AK238" s="101"/>
-      <c r="AL238" s="184"/>
-      <c r="AM238" s="185"/>
+      <c r="AL238" s="101"/>
+      <c r="AM238" s="101"/>
+      <c r="AN238" s="184"/>
+      <c r="AO238" s="185"/>
     </row>
-    <row r="239" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="14" t="s">
         <v>71</v>
       </c>
@@ -29313,16 +29726,18 @@
         <f>STDEV(AI239:AI241)</f>
         <v>0.74688001722034025</v>
       </c>
-      <c r="AL239" s="187">
+      <c r="AL239" s="116"/>
+      <c r="AM239" s="116"/>
+      <c r="AN239" s="187">
         <f>AVERAGE(AI239:AI241)-AVERAGE(AI242)</f>
         <v>24.654729295652825</v>
       </c>
-      <c r="AM239" s="188">
+      <c r="AO239" s="188">
         <f>STDEV(AI239:AI241)</f>
         <v>0.74688001722034025</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="14" t="s">
         <v>71</v>
       </c>
@@ -29431,7 +29846,7 @@
         <v>26.080291853831177</v>
       </c>
     </row>
-    <row r="241" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="14" t="s">
         <v>71</v>
       </c>
@@ -29540,7 +29955,7 @@
         <v>25.372512548630347</v>
       </c>
     </row>
-    <row r="242" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
         <v>199</v>
       </c>
@@ -29649,7 +30064,7 @@
         <v>0.69193972122106751</v>
       </c>
     </row>
-    <row r="243" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="36" t="s">
         <v>73</v>
       </c>
@@ -29754,16 +30169,18 @@
         <f>STDEV(AI243:AI245)</f>
         <v>0.85302071890532682</v>
       </c>
-      <c r="AL243" s="187">
+      <c r="AL243" s="167"/>
+      <c r="AM243" s="167"/>
+      <c r="AN243" s="187">
         <f>AVERAGE(AI243:AI245)-AVERAGE(AI246)</f>
         <v>12.872307522437922</v>
       </c>
-      <c r="AM243" s="188">
+      <c r="AO243" s="188">
         <f>STDEV(AI243:AI245)</f>
         <v>0.85302071890532682</v>
       </c>
     </row>
-    <row r="244" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="36" t="s">
         <v>73</v>
       </c>
@@ -29862,10 +30279,12 @@
       </c>
       <c r="AJ244" s="101"/>
       <c r="AK244" s="101"/>
-      <c r="AL244" s="184"/>
-      <c r="AM244" s="185"/>
+      <c r="AL244" s="101"/>
+      <c r="AM244" s="101"/>
+      <c r="AN244" s="184"/>
+      <c r="AO244" s="185"/>
     </row>
-    <row r="245" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="36" t="s">
         <v>73</v>
       </c>
@@ -29964,10 +30383,12 @@
       </c>
       <c r="AJ245" s="101"/>
       <c r="AK245" s="101"/>
-      <c r="AL245" s="184"/>
-      <c r="AM245" s="185"/>
+      <c r="AL245" s="101"/>
+      <c r="AM245" s="101"/>
+      <c r="AN245" s="184"/>
+      <c r="AO245" s="185"/>
     </row>
-    <row r="246" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="36" t="s">
         <v>200</v>
       </c>
@@ -30066,10 +30487,12 @@
       </c>
       <c r="AJ246" s="101"/>
       <c r="AK246" s="101"/>
-      <c r="AL246" s="184"/>
-      <c r="AM246" s="185"/>
+      <c r="AL246" s="101"/>
+      <c r="AM246" s="101"/>
+      <c r="AN246" s="184"/>
+      <c r="AO246" s="185"/>
     </row>
-    <row r="247" spans="1:359" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:361" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="28" t="s">
         <v>74</v>
       </c>
@@ -30179,11 +30602,11 @@
       </c>
       <c r="AJ247" s="90"/>
       <c r="AK247" s="90"/>
-      <c r="AL247" s="191"/>
-      <c r="AM247" s="192"/>
-      <c r="AN247" s="84"/>
-      <c r="AO247" s="55"/>
-      <c r="AP247" s="55"/>
+      <c r="AL247" s="90"/>
+      <c r="AM247" s="90"/>
+      <c r="AN247" s="191"/>
+      <c r="AO247" s="192"/>
+      <c r="AP247" s="84"/>
       <c r="AQ247" s="55"/>
       <c r="AR247" s="55"/>
       <c r="AS247" s="55"/>
@@ -30501,8 +30924,10 @@
       <c r="MS247" s="55"/>
       <c r="MT247" s="55"/>
       <c r="MU247" s="55"/>
+      <c r="MV247" s="55"/>
+      <c r="MW247" s="55"/>
     </row>
-    <row r="248" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="14" t="s">
         <v>74</v>
       </c>
@@ -30618,16 +31043,18 @@
         <f>STDEV(AI248:AI250)</f>
         <v>0.1428578223592685</v>
       </c>
-      <c r="AL248" s="187">
+      <c r="AL248" s="116"/>
+      <c r="AM248" s="116"/>
+      <c r="AN248" s="187">
         <f>AVERAGE(AI248:AI250)-AVERAGE(AI251)</f>
         <v>3.0533375467588737</v>
       </c>
-      <c r="AM248" s="188">
+      <c r="AO248" s="188">
         <f>STDEV(AI248:AI250)</f>
         <v>0.1428578223592685</v>
       </c>
     </row>
-    <row r="249" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="14" t="s">
         <v>74</v>
       </c>
@@ -30736,7 +31163,7 @@
         <v>3.253597610884936</v>
       </c>
     </row>
-    <row r="250" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="14" t="s">
         <v>74</v>
       </c>
@@ -30845,7 +31272,7 @@
         <v>3.2267845479057149</v>
       </c>
     </row>
-    <row r="251" spans="1:359" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:361" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="14" t="s">
         <v>201</v>
       </c>
@@ -30956,11 +31383,13 @@
       </c>
       <c r="AJ251" s="88"/>
       <c r="AK251" s="88"/>
-      <c r="AL251" s="184"/>
-      <c r="AM251" s="185"/>
-      <c r="AN251" s="83"/>
+      <c r="AL251" s="88"/>
+      <c r="AM251" s="88"/>
+      <c r="AN251" s="184"/>
+      <c r="AO251" s="185"/>
+      <c r="AP251" s="83"/>
     </row>
-    <row r="252" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="36" t="s">
         <v>75</v>
       </c>
@@ -31077,16 +31506,18 @@
         <f>STDEV(AI252:AI254)</f>
         <v>0.51100577924232404</v>
       </c>
-      <c r="AL252" s="187">
+      <c r="AL252" s="167"/>
+      <c r="AM252" s="167"/>
+      <c r="AN252" s="187">
         <f>AVERAGE(AI252:AI254)-AVERAGE(AI255)</f>
         <v>0.14045846151347219</v>
       </c>
-      <c r="AM252" s="188">
+      <c r="AO252" s="188">
         <f>STDEV(AI252:AI254)</f>
         <v>0.51100577924232404</v>
       </c>
     </row>
-    <row r="253" spans="1:359" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:361" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="45" t="s">
         <v>75</v>
       </c>
@@ -31196,10 +31627,12 @@
       </c>
       <c r="AJ253" s="101"/>
       <c r="AK253" s="101"/>
-      <c r="AL253" s="184"/>
-      <c r="AM253" s="185"/>
+      <c r="AL253" s="101"/>
+      <c r="AM253" s="101"/>
+      <c r="AN253" s="184"/>
+      <c r="AO253" s="185"/>
     </row>
-    <row r="254" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="36" t="s">
         <v>75</v>
       </c>
@@ -31310,10 +31743,12 @@
       </c>
       <c r="AJ254" s="101"/>
       <c r="AK254" s="101"/>
-      <c r="AL254" s="184"/>
-      <c r="AM254" s="185"/>
+      <c r="AL254" s="101"/>
+      <c r="AM254" s="101"/>
+      <c r="AN254" s="184"/>
+      <c r="AO254" s="185"/>
     </row>
-    <row r="255" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="36" t="s">
         <v>202</v>
       </c>
@@ -31424,10 +31859,12 @@
       </c>
       <c r="AJ255" s="101"/>
       <c r="AK255" s="101"/>
-      <c r="AL255" s="184"/>
-      <c r="AM255" s="185"/>
+      <c r="AL255" s="101"/>
+      <c r="AM255" s="101"/>
+      <c r="AN255" s="184"/>
+      <c r="AO255" s="185"/>
     </row>
-    <row r="256" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="14" t="s">
         <v>76</v>
       </c>
@@ -31543,16 +31980,18 @@
         <f>STDEV(AI256:AI258)</f>
         <v>0.26076753201205377</v>
       </c>
-      <c r="AL256" s="187">
+      <c r="AL256" s="116"/>
+      <c r="AM256" s="116"/>
+      <c r="AN256" s="187">
         <f>AVERAGE(AI256:AI258)-AVERAGE(AI259)</f>
         <v>-1.8665139372701534E-2</v>
       </c>
-      <c r="AM256" s="188">
+      <c r="AO256" s="188">
         <f>STDEV(AI256:AI258)</f>
         <v>0.26076753201205377</v>
       </c>
     </row>
-    <row r="257" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="14" t="s">
         <v>76</v>
       </c>
@@ -31661,7 +32100,7 @@
         <v>0.39314677773448181</v>
       </c>
     </row>
-    <row r="258" spans="1:359" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:361" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="28" t="s">
         <v>76</v>
       </c>
@@ -31769,11 +32208,11 @@
       </c>
       <c r="AJ258" s="88"/>
       <c r="AK258" s="88"/>
-      <c r="AL258" s="184"/>
-      <c r="AM258" s="185"/>
-      <c r="AN258" s="84"/>
-      <c r="AO258" s="55"/>
-      <c r="AP258" s="55"/>
+      <c r="AL258" s="88"/>
+      <c r="AM258" s="88"/>
+      <c r="AN258" s="184"/>
+      <c r="AO258" s="185"/>
+      <c r="AP258" s="84"/>
       <c r="AQ258" s="55"/>
       <c r="AR258" s="55"/>
       <c r="AS258" s="55"/>
@@ -32091,8 +32530,10 @@
       <c r="MS258" s="55"/>
       <c r="MT258" s="55"/>
       <c r="MU258" s="55"/>
+      <c r="MV258" s="55"/>
+      <c r="MW258" s="55"/>
     </row>
-    <row r="259" spans="1:359" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:361" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="14" t="s">
         <v>203</v>
       </c>
@@ -32203,11 +32644,13 @@
       </c>
       <c r="AJ259" s="88"/>
       <c r="AK259" s="88"/>
-      <c r="AL259" s="184"/>
-      <c r="AM259" s="185"/>
-      <c r="AN259" s="83"/>
+      <c r="AL259" s="88"/>
+      <c r="AM259" s="88"/>
+      <c r="AN259" s="184"/>
+      <c r="AO259" s="185"/>
+      <c r="AP259" s="83"/>
     </row>
-    <row r="260" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="36" t="s">
         <v>77</v>
       </c>
@@ -32324,16 +32767,18 @@
         <f>STDEV(AI260:AI262)</f>
         <v>0.37435762096385755</v>
       </c>
-      <c r="AL260" s="187">
+      <c r="AL260" s="167"/>
+      <c r="AM260" s="167"/>
+      <c r="AN260" s="187">
         <f>AVERAGE(AI260:AI262)-AVERAGE(AI263)</f>
         <v>5.925284522150509E-2</v>
       </c>
-      <c r="AM260" s="188">
+      <c r="AO260" s="188">
         <f>STDEV(AI260:AI262)</f>
         <v>0.37435762096385755</v>
       </c>
     </row>
-    <row r="261" spans="1:359" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:361" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="45" t="s">
         <v>77</v>
       </c>
@@ -32441,10 +32886,12 @@
       </c>
       <c r="AJ261" s="101"/>
       <c r="AK261" s="101"/>
-      <c r="AL261" s="184"/>
-      <c r="AM261" s="185"/>
+      <c r="AL261" s="101"/>
+      <c r="AM261" s="101"/>
+      <c r="AN261" s="184"/>
+      <c r="AO261" s="185"/>
     </row>
-    <row r="262" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="36" t="s">
         <v>257</v>
       </c>
@@ -32555,10 +33002,12 @@
       </c>
       <c r="AJ262" s="101"/>
       <c r="AK262" s="101"/>
-      <c r="AL262" s="184"/>
-      <c r="AM262" s="185"/>
+      <c r="AL262" s="101"/>
+      <c r="AM262" s="101"/>
+      <c r="AN262" s="184"/>
+      <c r="AO262" s="185"/>
     </row>
-    <row r="263" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="36" t="s">
         <v>204</v>
       </c>
@@ -32669,10 +33118,12 @@
       </c>
       <c r="AJ263" s="101"/>
       <c r="AK263" s="101"/>
-      <c r="AL263" s="184"/>
-      <c r="AM263" s="185"/>
+      <c r="AL263" s="101"/>
+      <c r="AM263" s="101"/>
+      <c r="AN263" s="184"/>
+      <c r="AO263" s="185"/>
     </row>
-    <row r="264" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="14" t="s">
         <v>78</v>
       </c>
@@ -32788,16 +33239,18 @@
         <f>STDEV(AI264:AI266)</f>
         <v>0.85690901949040565</v>
       </c>
-      <c r="AL264" s="187">
+      <c r="AL264" s="116"/>
+      <c r="AM264" s="116"/>
+      <c r="AN264" s="187">
         <f>AVERAGE(AI264:AI266)-AVERAGE(AI267)</f>
         <v>16.796454765184272</v>
       </c>
-      <c r="AM264" s="188">
+      <c r="AO264" s="188">
         <f>STDEV(AI264:AI266)</f>
         <v>0.85690901949040565</v>
       </c>
     </row>
-    <row r="265" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="14" t="s">
         <v>78</v>
       </c>
@@ -32906,7 +33359,7 @@
         <v>16.820836000657621</v>
       </c>
     </row>
-    <row r="266" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="14" t="s">
         <v>78</v>
       </c>
@@ -33015,7 +33468,7 @@
         <v>18.288143080962719</v>
       </c>
     </row>
-    <row r="267" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="14" t="s">
         <v>205</v>
       </c>
@@ -33124,7 +33577,7 @@
         <v>0.50240121581443253</v>
       </c>
     </row>
-    <row r="268" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="36" t="s">
         <v>80</v>
       </c>
@@ -33241,16 +33694,18 @@
         <f>STDEV(AI268:AI270)</f>
         <v>0.34067215374550031</v>
       </c>
-      <c r="AL268" s="187">
+      <c r="AL268" s="167"/>
+      <c r="AM268" s="167"/>
+      <c r="AN268" s="187">
         <f>AVERAGE(AI268:AI270)-AVERAGE(AI271)</f>
         <v>14.093031022665309</v>
       </c>
-      <c r="AM268" s="188">
+      <c r="AO268" s="188">
         <f>STDEV(AI268:AI270)</f>
         <v>0.34067215374550031</v>
       </c>
     </row>
-    <row r="269" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="36" t="s">
         <v>80</v>
       </c>
@@ -33361,10 +33816,12 @@
       </c>
       <c r="AJ269" s="101"/>
       <c r="AK269" s="101"/>
-      <c r="AL269" s="184"/>
-      <c r="AM269" s="185"/>
+      <c r="AL269" s="101"/>
+      <c r="AM269" s="101"/>
+      <c r="AN269" s="184"/>
+      <c r="AO269" s="185"/>
     </row>
-    <row r="270" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="36" t="s">
         <v>80</v>
       </c>
@@ -33475,10 +33932,12 @@
       </c>
       <c r="AJ270" s="101"/>
       <c r="AK270" s="101"/>
-      <c r="AL270" s="184"/>
-      <c r="AM270" s="185"/>
+      <c r="AL270" s="101"/>
+      <c r="AM270" s="101"/>
+      <c r="AN270" s="184"/>
+      <c r="AO270" s="185"/>
     </row>
-    <row r="271" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="36" t="s">
         <v>206</v>
       </c>
@@ -33589,10 +34048,12 @@
       </c>
       <c r="AJ271" s="101"/>
       <c r="AK271" s="101"/>
-      <c r="AL271" s="184"/>
-      <c r="AM271" s="185"/>
+      <c r="AL271" s="101"/>
+      <c r="AM271" s="101"/>
+      <c r="AN271" s="184"/>
+      <c r="AO271" s="185"/>
     </row>
-    <row r="272" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="14" t="s">
         <v>81</v>
       </c>
@@ -33708,16 +34169,18 @@
         <f>STDEV(AI272:AI274)</f>
         <v>0.73730109605448235</v>
       </c>
-      <c r="AL272" s="187">
+      <c r="AL272" s="116"/>
+      <c r="AM272" s="116"/>
+      <c r="AN272" s="187">
         <f>AVERAGE(AI272:AI274)-AVERAGE(AI275)</f>
         <v>11.008129137026632</v>
       </c>
-      <c r="AM272" s="188">
+      <c r="AO272" s="188">
         <f>STDEV(AI272:AI274)</f>
         <v>0.73730109605448235</v>
       </c>
     </row>
-    <row r="273" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="14" t="s">
         <v>81</v>
       </c>
@@ -33826,7 +34289,7 @@
         <v>10.648924379326237</v>
       </c>
     </row>
-    <row r="274" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="14" t="s">
         <v>81</v>
       </c>
@@ -33935,7 +34398,7 @@
         <v>11.9713537997887</v>
       </c>
     </row>
-    <row r="275" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="14" t="s">
         <v>207</v>
       </c>
@@ -34044,7 +34507,7 @@
         <v>0.49034300257513991</v>
       </c>
     </row>
-    <row r="276" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="36" t="s">
         <v>82</v>
       </c>
@@ -34161,16 +34624,18 @@
         <f>STDEV(AI276:AI278)</f>
         <v>0.42744925011971036</v>
       </c>
-      <c r="AL276" s="187">
+      <c r="AL276" s="167"/>
+      <c r="AM276" s="167"/>
+      <c r="AN276" s="187">
         <f>AVERAGE(AI276:AI278)-AVERAGE(AI279)</f>
         <v>4.0219734296878187</v>
       </c>
-      <c r="AM276" s="188">
+      <c r="AO276" s="188">
         <f>STDEV(AI276:AI278)</f>
         <v>0.42744925011971036</v>
       </c>
     </row>
-    <row r="277" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="36" t="s">
         <v>82</v>
       </c>
@@ -34281,10 +34746,12 @@
       </c>
       <c r="AJ277" s="101"/>
       <c r="AK277" s="101"/>
-      <c r="AL277" s="184"/>
-      <c r="AM277" s="185"/>
+      <c r="AL277" s="101"/>
+      <c r="AM277" s="101"/>
+      <c r="AN277" s="184"/>
+      <c r="AO277" s="185"/>
     </row>
-    <row r="278" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="36" t="s">
         <v>82</v>
       </c>
@@ -34395,10 +34862,12 @@
       </c>
       <c r="AJ278" s="101"/>
       <c r="AK278" s="101"/>
-      <c r="AL278" s="184"/>
-      <c r="AM278" s="185"/>
+      <c r="AL278" s="101"/>
+      <c r="AM278" s="101"/>
+      <c r="AN278" s="184"/>
+      <c r="AO278" s="185"/>
     </row>
-    <row r="279" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="36" t="s">
         <v>208</v>
       </c>
@@ -34509,10 +34978,12 @@
       </c>
       <c r="AJ279" s="101"/>
       <c r="AK279" s="101"/>
-      <c r="AL279" s="184"/>
-      <c r="AM279" s="185"/>
+      <c r="AL279" s="101"/>
+      <c r="AM279" s="101"/>
+      <c r="AN279" s="184"/>
+      <c r="AO279" s="185"/>
     </row>
-    <row r="280" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="14" t="s">
         <v>83</v>
       </c>
@@ -34628,16 +35099,18 @@
         <f>STDEV(AI280:AI282)</f>
         <v>0.71118812935079656</v>
       </c>
-      <c r="AL280" s="187">
+      <c r="AL280" s="116"/>
+      <c r="AM280" s="116"/>
+      <c r="AN280" s="187">
         <f>AVERAGE(AI280:AI282)-AVERAGE(AI283)</f>
         <v>1.458163397974066</v>
       </c>
-      <c r="AM280" s="188">
+      <c r="AO280" s="188">
         <f>STDEV(AI280:AI282)</f>
         <v>0.71118812935079656</v>
       </c>
     </row>
-    <row r="281" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="14" t="s">
         <v>83</v>
       </c>
@@ -34746,7 +35219,7 @@
         <v>2.2641210584189153</v>
       </c>
     </row>
-    <row r="282" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="14" t="s">
         <v>83</v>
       </c>
@@ -34855,7 +35328,7 @@
         <v>0.96466932280937334</v>
       </c>
     </row>
-    <row r="283" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="14" t="s">
         <v>209</v>
       </c>
@@ -34964,7 +35437,7 @@
         <v>0.32320968741942158</v>
       </c>
     </row>
-    <row r="284" spans="1:39" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:41" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="36" t="s">
         <v>84</v>
       </c>
@@ -35081,16 +35554,18 @@
         <f>STDEV(AI284:AI286)</f>
         <v>8.4922871037231729E-2</v>
       </c>
-      <c r="AL284" s="187">
+      <c r="AL284" s="167"/>
+      <c r="AM284" s="167"/>
+      <c r="AN284" s="187">
         <f>AVERAGE(AI284:AI286)-AVERAGE(0)</f>
         <v>1.0171965157722205</v>
       </c>
-      <c r="AM284" s="188">
+      <c r="AO284" s="188">
         <f>STDEV(AI284:AI286)</f>
         <v>8.4922871037231729E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="36" t="s">
         <v>84</v>
       </c>
@@ -35201,10 +35676,12 @@
       </c>
       <c r="AJ285" s="167"/>
       <c r="AK285" s="167"/>
-      <c r="AL285" s="187"/>
-      <c r="AM285" s="188"/>
+      <c r="AL285" s="167"/>
+      <c r="AM285" s="167"/>
+      <c r="AN285" s="187"/>
+      <c r="AO285" s="188"/>
     </row>
-    <row r="286" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="36" t="s">
         <v>210</v>
       </c>
@@ -35315,10 +35792,12 @@
       </c>
       <c r="AJ286" s="101"/>
       <c r="AK286" s="101"/>
-      <c r="AL286" s="184"/>
-      <c r="AM286" s="185"/>
+      <c r="AL286" s="101"/>
+      <c r="AM286" s="101"/>
+      <c r="AN286" s="184"/>
+      <c r="AO286" s="185"/>
     </row>
-    <row r="287" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="14" t="s">
         <v>85</v>
       </c>
@@ -35434,16 +35913,18 @@
         <f>STDEV(AI287:AI289)</f>
         <v>0.41717860342369739</v>
       </c>
-      <c r="AL287" s="187">
+      <c r="AL287" s="116"/>
+      <c r="AM287" s="116"/>
+      <c r="AN287" s="187">
         <f>AVERAGE(AI287:AI289)-AVERAGE(AI290)</f>
         <v>21.320623266609157</v>
       </c>
-      <c r="AM287" s="188">
+      <c r="AO287" s="188">
         <f>STDEV(AI287:AI289)</f>
         <v>0.41717860342369739</v>
       </c>
     </row>
-    <row r="288" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="14" t="s">
         <v>85</v>
       </c>
@@ -35552,7 +36033,7 @@
         <v>22.497147139631164</v>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="14" t="s">
         <v>85</v>
       </c>
@@ -35661,7 +36142,7 @@
         <v>21.673036999475102</v>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="14" t="s">
         <v>211</v>
       </c>
@@ -35770,7 +36251,7 @@
         <v>0.80210126400945914</v>
       </c>
     </row>
-    <row r="291" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="36" t="s">
         <v>87</v>
       </c>
@@ -35887,16 +36368,18 @@
         <f>STDEV(AI291:AI293)</f>
         <v>1.3060428601754996</v>
       </c>
-      <c r="AL291" s="187">
+      <c r="AL291" s="167"/>
+      <c r="AM291" s="167"/>
+      <c r="AN291" s="187">
         <f>AVERAGE(AI291:AI293)-AVERAGE(AI294)</f>
         <v>19.151401968860483</v>
       </c>
-      <c r="AM291" s="188">
+      <c r="AO291" s="188">
         <f>STDEV(AI291:AI293)</f>
         <v>1.3060428601754996</v>
       </c>
     </row>
-    <row r="292" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="36" t="s">
         <v>87</v>
       </c>
@@ -36007,10 +36490,12 @@
       </c>
       <c r="AJ292" s="101"/>
       <c r="AK292" s="101"/>
-      <c r="AL292" s="184"/>
-      <c r="AM292" s="185"/>
+      <c r="AL292" s="101"/>
+      <c r="AM292" s="101"/>
+      <c r="AN292" s="184"/>
+      <c r="AO292" s="185"/>
     </row>
-    <row r="293" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="36" t="s">
         <v>87</v>
       </c>
@@ -36121,10 +36606,12 @@
       </c>
       <c r="AJ293" s="101"/>
       <c r="AK293" s="101"/>
-      <c r="AL293" s="184"/>
-      <c r="AM293" s="185"/>
+      <c r="AL293" s="101"/>
+      <c r="AM293" s="101"/>
+      <c r="AN293" s="184"/>
+      <c r="AO293" s="185"/>
     </row>
-    <row r="294" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="36" t="s">
         <v>212</v>
       </c>
@@ -36235,10 +36722,12 @@
       </c>
       <c r="AJ294" s="101"/>
       <c r="AK294" s="101"/>
-      <c r="AL294" s="184"/>
-      <c r="AM294" s="185"/>
+      <c r="AL294" s="101"/>
+      <c r="AM294" s="101"/>
+      <c r="AN294" s="184"/>
+      <c r="AO294" s="185"/>
     </row>
-    <row r="295" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="14" t="s">
         <v>88</v>
       </c>
@@ -36354,16 +36843,18 @@
         <f>STDEV(AI295:AI297)</f>
         <v>11.199476935230534</v>
       </c>
-      <c r="AL295" s="187">
+      <c r="AL295" s="116"/>
+      <c r="AM295" s="116"/>
+      <c r="AN295" s="187">
         <f>AVERAGE(AI295:AI297)-AVERAGE(0)</f>
         <v>13.154079117969545</v>
       </c>
-      <c r="AM295" s="188">
+      <c r="AO295" s="188">
         <f>STDEV(AI295:AI297)</f>
         <v>11.199476935230534</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="14" t="s">
         <v>88</v>
       </c>
@@ -36472,7 +36963,7 @@
         <v>16.710857612973783</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="14" t="s">
         <v>213</v>
       </c>
@@ -36581,7 +37072,7 @@
         <v>0.60813310600747328</v>
       </c>
     </row>
-    <row r="298" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="36" t="s">
         <v>89</v>
       </c>
@@ -36698,16 +37189,18 @@
         <f>STDEV(AI298:AI300)</f>
         <v>9.467895948123628</v>
       </c>
-      <c r="AL298" s="187">
+      <c r="AL298" s="167"/>
+      <c r="AM298" s="167"/>
+      <c r="AN298" s="187">
         <f>AVERAGE(AI298:AI300)-AVERAGE(AI301)</f>
         <v>8.8732143455386367</v>
       </c>
-      <c r="AM298" s="188">
+      <c r="AO298" s="188">
         <f>STDEV(AI298:AI300)</f>
         <v>9.467895948123628</v>
       </c>
     </row>
-    <row r="299" spans="1:40" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:42" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="45" t="s">
         <v>89</v>
       </c>
@@ -36817,10 +37310,12 @@
       </c>
       <c r="AJ299" s="101"/>
       <c r="AK299" s="101"/>
-      <c r="AL299" s="184"/>
-      <c r="AM299" s="185"/>
+      <c r="AL299" s="101"/>
+      <c r="AM299" s="101"/>
+      <c r="AN299" s="184"/>
+      <c r="AO299" s="185"/>
     </row>
-    <row r="300" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="36" t="s">
         <v>89</v>
       </c>
@@ -36931,10 +37426,12 @@
       </c>
       <c r="AJ300" s="101"/>
       <c r="AK300" s="101"/>
-      <c r="AL300" s="184"/>
-      <c r="AM300" s="185"/>
+      <c r="AL300" s="101"/>
+      <c r="AM300" s="101"/>
+      <c r="AN300" s="184"/>
+      <c r="AO300" s="185"/>
     </row>
-    <row r="301" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="36" t="s">
         <v>214</v>
       </c>
@@ -37045,10 +37542,12 @@
       </c>
       <c r="AJ301" s="101"/>
       <c r="AK301" s="101"/>
-      <c r="AL301" s="184"/>
-      <c r="AM301" s="185"/>
+      <c r="AL301" s="101"/>
+      <c r="AM301" s="101"/>
+      <c r="AN301" s="184"/>
+      <c r="AO301" s="185"/>
     </row>
-    <row r="302" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="14" t="s">
         <v>90</v>
       </c>
@@ -37165,17 +37664,19 @@
         <f>STDEV(AI302:AI303)</f>
         <v>0.66394367412838395</v>
       </c>
-      <c r="AL302" s="187">
+      <c r="AL302" s="116"/>
+      <c r="AM302" s="116"/>
+      <c r="AN302" s="187">
         <f>AVERAGE(AI302:AI303)-AVERAGE(AI304)</f>
         <v>3.1818555114594043</v>
       </c>
-      <c r="AM302" s="188">
+      <c r="AO302" s="188">
         <f>STDEV(AI302:AI303)</f>
         <v>0.66394367412838395</v>
       </c>
-      <c r="AN302" s="83"/>
+      <c r="AP302" s="83"/>
     </row>
-    <row r="303" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="14" t="s">
         <v>90</v>
       </c>
@@ -37286,11 +37787,13 @@
       </c>
       <c r="AJ303" s="88"/>
       <c r="AK303" s="88"/>
-      <c r="AL303" s="184"/>
-      <c r="AM303" s="185"/>
-      <c r="AN303" s="83"/>
+      <c r="AL303" s="88"/>
+      <c r="AM303" s="88"/>
+      <c r="AN303" s="184"/>
+      <c r="AO303" s="185"/>
+      <c r="AP303" s="83"/>
     </row>
-    <row r="304" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="14" t="s">
         <v>216</v>
       </c>
@@ -37401,11 +37904,13 @@
       </c>
       <c r="AJ304" s="88"/>
       <c r="AK304" s="88"/>
-      <c r="AL304" s="184"/>
-      <c r="AM304" s="185"/>
-      <c r="AN304" s="83"/>
+      <c r="AL304" s="88"/>
+      <c r="AM304" s="88"/>
+      <c r="AN304" s="184"/>
+      <c r="AO304" s="185"/>
+      <c r="AP304" s="83"/>
     </row>
-    <row r="305" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="36" t="s">
         <v>91</v>
       </c>
@@ -37522,16 +38027,18 @@
         <f>STDEV(AI305:AI306)</f>
         <v>2.3859661240076251E-2</v>
       </c>
-      <c r="AL305" s="187">
+      <c r="AL305" s="167"/>
+      <c r="AM305" s="167"/>
+      <c r="AN305" s="187">
         <f>AVERAGE(AI305:AI306)-AVERAGE(AI307)</f>
         <v>1.0796639827012642</v>
       </c>
-      <c r="AM305" s="188">
+      <c r="AO305" s="188">
         <f>STDEV(AI305:AI306)</f>
         <v>2.3859661240076251E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="36" t="s">
         <v>91</v>
       </c>
@@ -37642,10 +38149,12 @@
       </c>
       <c r="AJ306" s="167"/>
       <c r="AK306" s="167"/>
-      <c r="AL306" s="187"/>
-      <c r="AM306" s="188"/>
+      <c r="AL306" s="167"/>
+      <c r="AM306" s="167"/>
+      <c r="AN306" s="187"/>
+      <c r="AO306" s="188"/>
     </row>
-    <row r="307" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="36" t="s">
         <v>217</v>
       </c>
@@ -37756,10 +38265,12 @@
       </c>
       <c r="AJ307" s="167"/>
       <c r="AK307" s="167"/>
-      <c r="AL307" s="187"/>
-      <c r="AM307" s="188"/>
+      <c r="AL307" s="167"/>
+      <c r="AM307" s="167"/>
+      <c r="AN307" s="187"/>
+      <c r="AO307" s="188"/>
     </row>
-    <row r="308" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="14" t="s">
         <v>92</v>
       </c>
@@ -37875,16 +38386,18 @@
         <f>STDEV(AI308:AI310)</f>
         <v>2.2876250288582636</v>
       </c>
-      <c r="AL308" s="187">
+      <c r="AL308" s="116"/>
+      <c r="AM308" s="116"/>
+      <c r="AN308" s="187">
         <f>AVERAGE(AI308:AI310)-AVERAGE(AI311)</f>
         <v>20.16733124309566</v>
       </c>
-      <c r="AM308" s="188">
+      <c r="AO308" s="188">
         <f>STDEV(AI308:AI310)</f>
         <v>2.2876250288582636</v>
       </c>
     </row>
-    <row r="309" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="14" t="s">
         <v>92</v>
       </c>
@@ -37993,7 +38506,7 @@
         <v>23.606805258332809</v>
       </c>
     </row>
-    <row r="310" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="14" t="s">
         <v>92</v>
       </c>
@@ -38102,7 +38615,7 @@
         <v>19.745438025292703</v>
       </c>
     </row>
-    <row r="311" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="14" t="s">
         <v>218</v>
       </c>
@@ -38211,7 +38724,7 @@
         <v>0.8003439656539203</v>
       </c>
     </row>
-    <row r="312" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="36" t="s">
         <v>94</v>
       </c>
@@ -38328,16 +38841,18 @@
         <f>STDEV(AI312:AI314)</f>
         <v>1.7748026986881087</v>
       </c>
-      <c r="AL312" s="187">
+      <c r="AL312" s="167"/>
+      <c r="AM312" s="167"/>
+      <c r="AN312" s="187">
         <f>AVERAGE(AI312:AI314)-AVERAGE(AI315)</f>
         <v>14.984801170781392</v>
       </c>
-      <c r="AM312" s="188">
+      <c r="AO312" s="188">
         <f>STDEV(AI312:AI314)</f>
         <v>1.7748026986881087</v>
       </c>
     </row>
-    <row r="313" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="36" t="s">
         <v>94</v>
       </c>
@@ -38448,10 +38963,12 @@
       </c>
       <c r="AJ313" s="101"/>
       <c r="AK313" s="101"/>
-      <c r="AL313" s="184"/>
-      <c r="AM313" s="185"/>
+      <c r="AL313" s="101"/>
+      <c r="AM313" s="101"/>
+      <c r="AN313" s="184"/>
+      <c r="AO313" s="185"/>
     </row>
-    <row r="314" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="36" t="s">
         <v>94</v>
       </c>
@@ -38562,10 +39079,12 @@
       </c>
       <c r="AJ314" s="101"/>
       <c r="AK314" s="101"/>
-      <c r="AL314" s="184"/>
-      <c r="AM314" s="185"/>
+      <c r="AL314" s="101"/>
+      <c r="AM314" s="101"/>
+      <c r="AN314" s="184"/>
+      <c r="AO314" s="185"/>
     </row>
-    <row r="315" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="36" t="s">
         <v>219</v>
       </c>
@@ -38676,10 +39195,12 @@
       </c>
       <c r="AJ315" s="101"/>
       <c r="AK315" s="101"/>
-      <c r="AL315" s="184"/>
-      <c r="AM315" s="185"/>
+      <c r="AL315" s="101"/>
+      <c r="AM315" s="101"/>
+      <c r="AN315" s="184"/>
+      <c r="AO315" s="185"/>
     </row>
-    <row r="316" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="14" t="s">
         <v>95</v>
       </c>
@@ -38795,16 +39316,18 @@
         <f>STDEV(AI316:AI318)</f>
         <v>1.4328459537237692</v>
       </c>
-      <c r="AL316" s="187">
+      <c r="AL316" s="116"/>
+      <c r="AM316" s="116"/>
+      <c r="AN316" s="187">
         <f>AVERAGE(AI316:AI318)-AVERAGE(AI319)</f>
         <v>7.0815618434296672</v>
       </c>
-      <c r="AM316" s="188">
+      <c r="AO316" s="188">
         <f>STDEV(AI316:AI318)</f>
         <v>1.4328459537237692</v>
       </c>
     </row>
-    <row r="317" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="14" t="s">
         <v>95</v>
       </c>
@@ -38913,7 +39436,7 @@
         <v>9.2800952355370132</v>
       </c>
     </row>
-    <row r="318" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="14" t="s">
         <v>95</v>
       </c>
@@ -39022,7 +39545,7 @@
         <v>6.8259971779935933</v>
       </c>
     </row>
-    <row r="319" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="14" t="s">
         <v>220</v>
       </c>
@@ -39131,7 +39654,7 @@
         <v>0.5443238907210326</v>
       </c>
     </row>
-    <row r="320" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="36" t="s">
         <v>96</v>
       </c>
@@ -39248,16 +39771,18 @@
         <f>STDEV(AI320:AI322)</f>
         <v>0.56547993767058335</v>
       </c>
-      <c r="AL320" s="187">
+      <c r="AL320" s="167"/>
+      <c r="AM320" s="167"/>
+      <c r="AN320" s="187">
         <f>AVERAGE(AI320:AI322)-AVERAGE(AI323)</f>
         <v>2.5206058363173107</v>
       </c>
-      <c r="AM320" s="188">
+      <c r="AO320" s="188">
         <f>STDEV(AI320:AI322)</f>
         <v>0.56547993767058335</v>
       </c>
     </row>
-    <row r="321" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="36" t="s">
         <v>96</v>
       </c>
@@ -39368,10 +39893,12 @@
       </c>
       <c r="AJ321" s="101"/>
       <c r="AK321" s="101"/>
-      <c r="AL321" s="184"/>
-      <c r="AM321" s="185"/>
+      <c r="AL321" s="101"/>
+      <c r="AM321" s="101"/>
+      <c r="AN321" s="184"/>
+      <c r="AO321" s="185"/>
     </row>
-    <row r="322" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="36" t="s">
         <v>96</v>
       </c>
@@ -39482,10 +40009,12 @@
       </c>
       <c r="AJ322" s="101"/>
       <c r="AK322" s="101"/>
-      <c r="AL322" s="184"/>
-      <c r="AM322" s="185"/>
+      <c r="AL322" s="101"/>
+      <c r="AM322" s="101"/>
+      <c r="AN322" s="184"/>
+      <c r="AO322" s="185"/>
     </row>
-    <row r="323" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="36" t="s">
         <v>221</v>
       </c>
@@ -39596,10 +40125,12 @@
       </c>
       <c r="AJ323" s="101"/>
       <c r="AK323" s="101"/>
-      <c r="AL323" s="184"/>
-      <c r="AM323" s="185"/>
+      <c r="AL323" s="101"/>
+      <c r="AM323" s="101"/>
+      <c r="AN323" s="184"/>
+      <c r="AO323" s="185"/>
     </row>
-    <row r="324" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="14" t="s">
         <v>97</v>
       </c>
@@ -39716,17 +40247,19 @@
         <f>STDEV(AI324:AI325)</f>
         <v>0.28439351463731055</v>
       </c>
-      <c r="AL324" s="187">
+      <c r="AL324" s="116"/>
+      <c r="AM324" s="116"/>
+      <c r="AN324" s="187">
         <f>AVERAGE(AI324:AI325)-AVERAGE(AI326)</f>
         <v>0.6440007434080256</v>
       </c>
-      <c r="AM324" s="188">
+      <c r="AO324" s="188">
         <f>STDEV(AI324:AI325)</f>
         <v>0.28439351463731055</v>
       </c>
-      <c r="AN324" s="83"/>
+      <c r="AP324" s="83"/>
     </row>
-    <row r="325" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="14" t="s">
         <v>97</v>
       </c>
@@ -39837,11 +40370,13 @@
       </c>
       <c r="AJ325" s="88"/>
       <c r="AK325" s="88"/>
-      <c r="AL325" s="184"/>
-      <c r="AM325" s="185"/>
-      <c r="AN325" s="83"/>
+      <c r="AL325" s="88"/>
+      <c r="AM325" s="88"/>
+      <c r="AN325" s="184"/>
+      <c r="AO325" s="185"/>
+      <c r="AP325" s="83"/>
     </row>
-    <row r="326" spans="1:40" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:42" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="14" t="s">
         <v>222</v>
       </c>
@@ -39952,11 +40487,13 @@
       </c>
       <c r="AJ326" s="88"/>
       <c r="AK326" s="88"/>
-      <c r="AL326" s="184"/>
-      <c r="AM326" s="185"/>
-      <c r="AN326" s="83"/>
+      <c r="AL326" s="88"/>
+      <c r="AM326" s="88"/>
+      <c r="AN326" s="184"/>
+      <c r="AO326" s="185"/>
+      <c r="AP326" s="83"/>
     </row>
-    <row r="327" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="36" t="s">
         <v>98</v>
       </c>
@@ -40073,16 +40610,18 @@
         <f>STDEV(AI327:AI328)</f>
         <v>6.9673558140881275E-2</v>
       </c>
-      <c r="AL327" s="187">
+      <c r="AL327" s="167"/>
+      <c r="AM327" s="167"/>
+      <c r="AN327" s="187">
         <f>AVERAGE(AI327:AI328)-AVERAGE(AI329)</f>
         <v>0.22211540626758991</v>
       </c>
-      <c r="AM327" s="188">
+      <c r="AO327" s="188">
         <f>STDEV(AI327:AI328)</f>
         <v>6.9673558140881275E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="36" t="s">
         <v>98</v>
       </c>
@@ -40193,10 +40732,12 @@
       </c>
       <c r="AJ328" s="167"/>
       <c r="AK328" s="167"/>
-      <c r="AL328" s="187"/>
-      <c r="AM328" s="188"/>
+      <c r="AL328" s="167"/>
+      <c r="AM328" s="167"/>
+      <c r="AN328" s="187"/>
+      <c r="AO328" s="188"/>
     </row>
-    <row r="329" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="36" t="s">
         <v>223</v>
       </c>
@@ -40307,10 +40848,12 @@
       </c>
       <c r="AJ329" s="167"/>
       <c r="AK329" s="167"/>
-      <c r="AL329" s="187"/>
-      <c r="AM329" s="188"/>
+      <c r="AL329" s="167"/>
+      <c r="AM329" s="167"/>
+      <c r="AN329" s="187"/>
+      <c r="AO329" s="188"/>
     </row>
-    <row r="330" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="36" t="s">
         <v>99</v>
       </c>
@@ -40427,16 +40970,18 @@
         <f>STDEV(AI330:AI332)</f>
         <v>0.27316726156329163</v>
       </c>
-      <c r="AL330" s="187">
+      <c r="AL330" s="167"/>
+      <c r="AM330" s="167"/>
+      <c r="AN330" s="187">
         <f>AVERAGE(AI330:AI332)-AVERAGE(AI333)</f>
         <v>4.4827125341319531</v>
       </c>
-      <c r="AM330" s="188">
+      <c r="AO330" s="188">
         <f>STDEV(AI330:AI332)</f>
         <v>0.27316726156329163</v>
       </c>
     </row>
-    <row r="331" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="36" t="s">
         <v>99</v>
       </c>
@@ -40547,10 +41092,12 @@
       </c>
       <c r="AJ331" s="101"/>
       <c r="AK331" s="101"/>
-      <c r="AL331" s="184"/>
-      <c r="AM331" s="185"/>
+      <c r="AL331" s="101"/>
+      <c r="AM331" s="101"/>
+      <c r="AN331" s="184"/>
+      <c r="AO331" s="185"/>
     </row>
-    <row r="332" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="36" t="s">
         <v>99</v>
       </c>
@@ -40661,10 +41208,12 @@
       </c>
       <c r="AJ332" s="101"/>
       <c r="AK332" s="101"/>
-      <c r="AL332" s="184"/>
-      <c r="AM332" s="185"/>
+      <c r="AL332" s="101"/>
+      <c r="AM332" s="101"/>
+      <c r="AN332" s="184"/>
+      <c r="AO332" s="185"/>
     </row>
-    <row r="333" spans="1:40" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:42" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="36" t="s">
         <v>224</v>
       </c>
@@ -40775,10 +41324,12 @@
       </c>
       <c r="AJ333" s="101"/>
       <c r="AK333" s="101"/>
-      <c r="AL333" s="184"/>
-      <c r="AM333" s="185"/>
+      <c r="AL333" s="101"/>
+      <c r="AM333" s="101"/>
+      <c r="AN333" s="184"/>
+      <c r="AO333" s="185"/>
     </row>
-    <row r="334" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="14" t="s">
         <v>101</v>
       </c>
@@ -40894,16 +41445,18 @@
         <f>STDEV(AI334:AI336)</f>
         <v>0.25109490963684039</v>
       </c>
-      <c r="AL334" s="187">
+      <c r="AL334" s="116"/>
+      <c r="AM334" s="116"/>
+      <c r="AN334" s="187">
         <f>AVERAGE(AI334:AI336)-AVERAGE(AI337)</f>
         <v>4.4454409013273466</v>
       </c>
-      <c r="AM334" s="188">
+      <c r="AO334" s="188">
         <f>STDEV(AI334:AI336)</f>
         <v>0.25109490963684039</v>
       </c>
     </row>
-    <row r="335" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="14" t="s">
         <v>101</v>
       </c>
@@ -41012,7 +41565,7 @@
         <v>4.8886632999884965</v>
       </c>
     </row>
-    <row r="336" spans="1:40" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="14" t="s">
         <v>228</v>
       </c>
@@ -41121,7 +41674,7 @@
         <v>4.4210579724549852</v>
       </c>
     </row>
-    <row r="337" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="14" t="s">
         <v>157</v>
       </c>
@@ -41230,7 +41783,7 @@
         <v>0.15655207603095586</v>
       </c>
     </row>
-    <row r="338" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="36" t="s">
         <v>102</v>
       </c>
@@ -41347,16 +41900,18 @@
         <f>STDEV(AI338:AI340)</f>
         <v>0.10115872785873382</v>
       </c>
-      <c r="AL338" s="187">
+      <c r="AL338" s="167"/>
+      <c r="AM338" s="167"/>
+      <c r="AN338" s="187">
         <f>AVERAGE(AI338:AI340)-AVERAGE(AI341)</f>
         <v>2.6860105386938011</v>
       </c>
-      <c r="AM338" s="188">
+      <c r="AO338" s="188">
         <f>STDEV(AI338:AI340)</f>
         <v>0.10115872785873382</v>
       </c>
     </row>
-    <row r="339" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="36" t="s">
         <v>102</v>
       </c>
@@ -41467,10 +42022,12 @@
       </c>
       <c r="AJ339" s="101"/>
       <c r="AK339" s="101"/>
-      <c r="AL339" s="184"/>
-      <c r="AM339" s="185"/>
+      <c r="AL339" s="101"/>
+      <c r="AM339" s="101"/>
+      <c r="AN339" s="184"/>
+      <c r="AO339" s="185"/>
     </row>
-    <row r="340" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="36" t="s">
         <v>229</v>
       </c>
@@ -41581,10 +42138,12 @@
       </c>
       <c r="AJ340" s="101"/>
       <c r="AK340" s="101"/>
-      <c r="AL340" s="184"/>
-      <c r="AM340" s="185"/>
+      <c r="AL340" s="101"/>
+      <c r="AM340" s="101"/>
+      <c r="AN340" s="184"/>
+      <c r="AO340" s="185"/>
     </row>
-    <row r="341" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="36" t="s">
         <v>225</v>
       </c>
@@ -41695,10 +42254,12 @@
       </c>
       <c r="AJ341" s="101"/>
       <c r="AK341" s="101"/>
-      <c r="AL341" s="184"/>
-      <c r="AM341" s="185"/>
+      <c r="AL341" s="101"/>
+      <c r="AM341" s="101"/>
+      <c r="AN341" s="184"/>
+      <c r="AO341" s="185"/>
     </row>
-    <row r="342" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="14" t="s">
         <v>103</v>
       </c>
@@ -41814,16 +42375,18 @@
         <f>STDEV(AI342:AI344)</f>
         <v>1.0837670197172837</v>
       </c>
-      <c r="AL342" s="187">
+      <c r="AL342" s="116"/>
+      <c r="AM342" s="116"/>
+      <c r="AN342" s="187">
         <f>AVERAGE(AI342:AI344)-AVERAGE(AI345)</f>
         <v>2.0611815148567065</v>
       </c>
-      <c r="AM342" s="188">
+      <c r="AO342" s="188">
         <f>STDEV(AI342:AI344)</f>
         <v>1.0837670197172837</v>
       </c>
     </row>
-    <row r="343" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="14" t="s">
         <v>103</v>
       </c>
@@ -41932,7 +42495,7 @@
         <v>1.5284161699146723</v>
       </c>
     </row>
-    <row r="344" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="14" t="s">
         <v>103</v>
       </c>
@@ -42041,7 +42604,7 @@
         <v>3.3994083779136677</v>
       </c>
     </row>
-    <row r="345" spans="1:39" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:41" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="45" t="s">
         <v>226</v>
       </c>
@@ -42154,10 +42717,12 @@
       </c>
       <c r="AJ345" s="101"/>
       <c r="AK345" s="101"/>
-      <c r="AL345" s="184"/>
-      <c r="AM345" s="185"/>
+      <c r="AL345" s="101"/>
+      <c r="AM345" s="101"/>
+      <c r="AN345" s="184"/>
+      <c r="AO345" s="185"/>
     </row>
-    <row r="346" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="36" t="s">
         <v>156</v>
       </c>
@@ -42274,16 +42839,23 @@
         <f>STDEV(AI346:AI348)</f>
         <v>0.57771087540532517</v>
       </c>
-      <c r="AL346" s="189">
+      <c r="AL346" s="168">
+        <f>AI347-AI346</f>
+        <v>0.97114154726458701</v>
+      </c>
+      <c r="AM346" s="168">
+        <v>0</v>
+      </c>
+      <c r="AN346" s="189">
         <f>AVERAGE(AI346:AI347)-AVERAGE(0)</f>
         <v>0.82885156152590189</v>
       </c>
-      <c r="AM346" s="190">
+      <c r="AO346" s="190">
         <f>STDEV(AI346:AI348)</f>
         <v>0.57771087540532517</v>
       </c>
     </row>
-    <row r="347" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="36" t="s">
         <v>104</v>
       </c>
@@ -42394,10 +42966,12 @@
       </c>
       <c r="AJ347" s="101"/>
       <c r="AK347" s="101"/>
-      <c r="AL347" s="184"/>
-      <c r="AM347" s="185"/>
+      <c r="AL347" s="101"/>
+      <c r="AM347" s="101"/>
+      <c r="AN347" s="184"/>
+      <c r="AO347" s="185"/>
     </row>
-    <row r="348" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="14" t="s">
         <v>105</v>
       </c>
@@ -42513,16 +43087,18 @@
         <f>STDEV(AI348:AI349)</f>
         <v>0.19887082712175116</v>
       </c>
-      <c r="AL348" s="187">
+      <c r="AL348" s="116"/>
+      <c r="AM348" s="116"/>
+      <c r="AN348" s="187">
         <f>AVERAGE(AI348:AI349)-AVERAGE(AI350)</f>
         <v>1.0033359947152338</v>
       </c>
-      <c r="AM348" s="188">
+      <c r="AO348" s="188">
         <f>STDEV(AI348:AI349)</f>
         <v>0.19887082712175116</v>
       </c>
     </row>
-    <row r="349" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="14" t="s">
         <v>105</v>
       </c>
@@ -42632,10 +43208,12 @@
       </c>
       <c r="AJ349" s="116"/>
       <c r="AK349" s="116"/>
-      <c r="AL349" s="187"/>
-      <c r="AM349" s="188"/>
+      <c r="AL349" s="116"/>
+      <c r="AM349" s="116"/>
+      <c r="AN349" s="187"/>
+      <c r="AO349" s="188"/>
     </row>
-    <row r="350" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="14" t="s">
         <v>227</v>
       </c>
@@ -42745,10 +43323,12 @@
       </c>
       <c r="AJ350" s="116"/>
       <c r="AK350" s="116"/>
-      <c r="AL350" s="187"/>
-      <c r="AM350" s="188"/>
+      <c r="AL350" s="116"/>
+      <c r="AM350" s="116"/>
+      <c r="AN350" s="187"/>
+      <c r="AO350" s="188"/>
     </row>
-    <row r="351" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="14" t="s">
         <v>106</v>
       </c>
@@ -42864,16 +43444,18 @@
         <f>STDEV(AI351:AI353)</f>
         <v>0.17952940276170912</v>
       </c>
-      <c r="AL351" s="187">
+      <c r="AL351" s="116"/>
+      <c r="AM351" s="116"/>
+      <c r="AN351" s="187">
         <f>AVERAGE(AI351:AI353)-AVERAGE(AI354)</f>
         <v>5.1951903070689474</v>
       </c>
-      <c r="AM351" s="188">
+      <c r="AO351" s="188">
         <f>STDEV(AI351:AI353)</f>
         <v>0.17952940276170912</v>
       </c>
     </row>
-    <row r="352" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="14" t="s">
         <v>106</v>
       </c>
@@ -42982,7 +43564,7 @@
         <v>5.6776383947952382</v>
       </c>
     </row>
-    <row r="353" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="14" t="s">
         <v>106</v>
       </c>
@@ -43091,7 +43673,7 @@
         <v>5.3187601170042909</v>
       </c>
     </row>
-    <row r="354" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="14" t="s">
         <v>231</v>
       </c>
@@ -43200,7 +43782,7 @@
         <v>0.29972251771551617</v>
       </c>
     </row>
-    <row r="355" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="36" t="s">
         <v>108</v>
       </c>
@@ -43317,16 +43899,18 @@
         <f>STDEV(AI355:AI357)</f>
         <v>0.19675867888843401</v>
       </c>
-      <c r="AL355" s="187">
+      <c r="AL355" s="167"/>
+      <c r="AM355" s="167"/>
+      <c r="AN355" s="187">
         <f>AVERAGE(AI355:AI357)-AVERAGE(AI358)</f>
         <v>4.3227694669077543</v>
       </c>
-      <c r="AM355" s="188">
+      <c r="AO355" s="188">
         <f>STDEV(AI355:AI357)</f>
         <v>0.19675867888843401</v>
       </c>
     </row>
-    <row r="356" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="36" t="s">
         <v>108</v>
       </c>
@@ -43437,10 +44021,12 @@
       </c>
       <c r="AJ356" s="101"/>
       <c r="AK356" s="101"/>
-      <c r="AL356" s="184"/>
-      <c r="AM356" s="185"/>
+      <c r="AL356" s="101"/>
+      <c r="AM356" s="101"/>
+      <c r="AN356" s="184"/>
+      <c r="AO356" s="185"/>
     </row>
-    <row r="357" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="36" t="s">
         <v>108</v>
       </c>
@@ -43551,10 +44137,12 @@
       </c>
       <c r="AJ357" s="101"/>
       <c r="AK357" s="101"/>
-      <c r="AL357" s="184"/>
-      <c r="AM357" s="185"/>
+      <c r="AL357" s="101"/>
+      <c r="AM357" s="101"/>
+      <c r="AN357" s="184"/>
+      <c r="AO357" s="185"/>
     </row>
-    <row r="358" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="36" t="s">
         <v>232</v>
       </c>
@@ -43665,10 +44253,12 @@
       </c>
       <c r="AJ358" s="101"/>
       <c r="AK358" s="101"/>
-      <c r="AL358" s="184"/>
-      <c r="AM358" s="185"/>
+      <c r="AL358" s="101"/>
+      <c r="AM358" s="101"/>
+      <c r="AN358" s="184"/>
+      <c r="AO358" s="185"/>
     </row>
-    <row r="359" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="14" t="s">
         <v>109</v>
       </c>
@@ -43784,16 +44374,18 @@
         <f>STDEV(AI359:AI361)</f>
         <v>0.21126308794870319</v>
       </c>
-      <c r="AL359" s="187">
+      <c r="AL359" s="116"/>
+      <c r="AM359" s="116"/>
+      <c r="AN359" s="187">
         <f>AVERAGE(AI359:AI361)-AVERAGE(AI362)</f>
         <v>4.0565251481225246</v>
       </c>
-      <c r="AM359" s="188">
+      <c r="AO359" s="188">
         <f>STDEV(AI359:AI361)</f>
         <v>0.21126308794870319</v>
       </c>
     </row>
-    <row r="360" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="14" t="s">
         <v>109</v>
       </c>
@@ -43902,7 +44494,7 @@
         <v>4.204887577865736</v>
       </c>
     </row>
-    <row r="361" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="14" t="s">
         <v>109</v>
       </c>
@@ -44011,7 +44603,7 @@
         <v>3.9558578907317825</v>
       </c>
     </row>
-    <row r="362" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="14" t="s">
         <v>233</v>
       </c>
@@ -44120,7 +44712,7 @@
         <v>0.12238378267463262</v>
       </c>
     </row>
-    <row r="363" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="36" t="s">
         <v>110</v>
       </c>
@@ -44237,16 +44829,18 @@
         <f>STDEV(AI363:AI365)</f>
         <v>8.5893348211874138E-2</v>
       </c>
-      <c r="AL363" s="187">
+      <c r="AL363" s="167"/>
+      <c r="AM363" s="167"/>
+      <c r="AN363" s="187">
         <f>AVERAGE(AI363:AI365)-AVERAGE(AI366)</f>
         <v>2.9753099154501181</v>
       </c>
-      <c r="AM363" s="188">
+      <c r="AO363" s="188">
         <f>STDEV(AI363:AI365)</f>
         <v>8.5893348211874138E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="36" t="s">
         <v>110</v>
       </c>
@@ -44357,10 +44951,12 @@
       </c>
       <c r="AJ364" s="101"/>
       <c r="AK364" s="101"/>
-      <c r="AL364" s="184"/>
-      <c r="AM364" s="185"/>
+      <c r="AL364" s="101"/>
+      <c r="AM364" s="101"/>
+      <c r="AN364" s="184"/>
+      <c r="AO364" s="185"/>
     </row>
-    <row r="365" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="36" t="s">
         <v>110</v>
       </c>
@@ -44471,10 +45067,12 @@
       </c>
       <c r="AJ365" s="101"/>
       <c r="AK365" s="101"/>
-      <c r="AL365" s="184"/>
-      <c r="AM365" s="185"/>
+      <c r="AL365" s="101"/>
+      <c r="AM365" s="101"/>
+      <c r="AN365" s="184"/>
+      <c r="AO365" s="185"/>
     </row>
-    <row r="366" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="36" t="s">
         <v>234</v>
       </c>
@@ -44585,10 +45183,12 @@
       </c>
       <c r="AJ366" s="101"/>
       <c r="AK366" s="101"/>
-      <c r="AL366" s="184"/>
-      <c r="AM366" s="185"/>
+      <c r="AL366" s="101"/>
+      <c r="AM366" s="101"/>
+      <c r="AN366" s="184"/>
+      <c r="AO366" s="185"/>
     </row>
-    <row r="367" spans="1:359" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:361" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="28" t="s">
         <v>111</v>
       </c>
@@ -44707,17 +45307,17 @@
         <f>STDEV(AI367:AI369)</f>
         <v>1.4879234146308356</v>
       </c>
-      <c r="AL367" s="187">
+      <c r="AL367" s="116"/>
+      <c r="AM367" s="116"/>
+      <c r="AN367" s="187">
         <f>AVERAGE(AI367:AI369)-AVERAGE(AI370)</f>
         <v>1.0650920616244006</v>
       </c>
-      <c r="AM367" s="188">
+      <c r="AO367" s="188">
         <f>STDEV(AI367:AI369)</f>
         <v>1.4879234146308356</v>
       </c>
-      <c r="AN367" s="84"/>
-      <c r="AO367" s="55"/>
-      <c r="AP367" s="55"/>
+      <c r="AP367" s="84"/>
       <c r="AQ367" s="55"/>
       <c r="AR367" s="55"/>
       <c r="AS367" s="55"/>
@@ -45035,8 +45635,10 @@
       <c r="MS367" s="55"/>
       <c r="MT367" s="55"/>
       <c r="MU367" s="55"/>
+      <c r="MV367" s="55"/>
+      <c r="MW367" s="55"/>
     </row>
-    <row r="368" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="14" t="s">
         <v>111</v>
       </c>
@@ -45146,7 +45748,7 @@
         <v>2.9811396058625004</v>
       </c>
     </row>
-    <row r="369" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="14" t="s">
         <v>111</v>
       </c>
@@ -45256,7 +45858,7 @@
         <v>1.256329199603557</v>
       </c>
     </row>
-    <row r="370" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="14" t="s">
         <v>235</v>
       </c>
@@ -45366,7 +45968,7 @@
         <v>0.35360106770114752</v>
       </c>
     </row>
-    <row r="371" spans="1:359" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:361" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="28" t="s">
         <v>111</v>
       </c>
@@ -45485,17 +46087,17 @@
         <f>STDEV(AI371:AI373)</f>
         <v>0.19615841373216836</v>
       </c>
-      <c r="AL371" s="187">
+      <c r="AL371" s="116"/>
+      <c r="AM371" s="116"/>
+      <c r="AN371" s="187">
         <f>AVERAGE(AI371:AI373)-AVERAGE(AI374)</f>
         <v>4.1391072657147698E-2</v>
       </c>
-      <c r="AM371" s="188">
+      <c r="AO371" s="188">
         <f>STDEV(AI371:AI373)</f>
         <v>0.19615841373216836</v>
       </c>
-      <c r="AN371" s="84"/>
-      <c r="AO371" s="55"/>
-      <c r="AP371" s="55"/>
+      <c r="AP371" s="84"/>
       <c r="AQ371" s="55"/>
       <c r="AR371" s="55"/>
       <c r="AS371" s="55"/>
@@ -45813,8 +46415,10 @@
       <c r="MS371" s="55"/>
       <c r="MT371" s="55"/>
       <c r="MU371" s="55"/>
+      <c r="MV371" s="55"/>
+      <c r="MW371" s="55"/>
     </row>
-    <row r="372" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="36" t="s">
         <v>112</v>
       </c>
@@ -45925,10 +46529,18 @@
       </c>
       <c r="AJ372" s="101"/>
       <c r="AK372" s="101"/>
-      <c r="AL372" s="184"/>
-      <c r="AM372" s="185"/>
+      <c r="AL372" s="167">
+        <f>AVERAGE(AI372:AI373)-AI374</f>
+        <v>0.15057829633963057</v>
+      </c>
+      <c r="AM372" s="101">
+        <f>STDEV(AI372:AI373)</f>
+        <v>7.3655601707608098E-2</v>
+      </c>
+      <c r="AN372" s="184"/>
+      <c r="AO372" s="185"/>
     </row>
-    <row r="373" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="36" t="s">
         <v>112</v>
       </c>
@@ -46039,10 +46651,12 @@
       </c>
       <c r="AJ373" s="101"/>
       <c r="AK373" s="101"/>
-      <c r="AL373" s="184"/>
-      <c r="AM373" s="185"/>
+      <c r="AL373" s="101"/>
+      <c r="AM373" s="101"/>
+      <c r="AN373" s="184"/>
+      <c r="AO373" s="185"/>
     </row>
-    <row r="374" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="36" t="s">
         <v>236</v>
       </c>
@@ -46153,10 +46767,12 @@
       </c>
       <c r="AJ374" s="101"/>
       <c r="AK374" s="101"/>
-      <c r="AL374" s="184"/>
-      <c r="AM374" s="185"/>
+      <c r="AL374" s="101"/>
+      <c r="AM374" s="101"/>
+      <c r="AN374" s="184"/>
+      <c r="AO374" s="185"/>
     </row>
-    <row r="375" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="14" t="s">
         <v>113</v>
       </c>
@@ -46272,16 +46888,18 @@
         <f>STDEV(AI375:AI377)</f>
         <v>0.21362058208051682</v>
       </c>
-      <c r="AL375" s="187">
+      <c r="AL375" s="116"/>
+      <c r="AM375" s="116"/>
+      <c r="AN375" s="187">
         <f>AVERAGE(AI375:AI377)-AVERAGE(AI378)</f>
         <v>6.40050367729628</v>
       </c>
-      <c r="AM375" s="188">
+      <c r="AO375" s="188">
         <f>STDEV(AI375:AI377)</f>
         <v>0.21362058208051682</v>
       </c>
     </row>
-    <row r="376" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="14" t="s">
         <v>113</v>
       </c>
@@ -46390,7 +47008,7 @@
         <v>7.0278790792306189</v>
       </c>
     </row>
-    <row r="377" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="14" t="s">
         <v>113</v>
       </c>
@@ -46499,7 +47117,7 @@
         <v>6.7205642660934819</v>
       </c>
     </row>
-    <row r="378" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="14" t="s">
         <v>237</v>
       </c>
@@ -46608,7 +47226,7 @@
         <v>0.38803805898421956</v>
       </c>
     </row>
-    <row r="379" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="36" t="s">
         <v>115</v>
       </c>
@@ -46725,16 +47343,18 @@
         <f>STDEV(AI379:AI381)</f>
         <v>0.29548323674965721</v>
       </c>
-      <c r="AL379" s="187">
+      <c r="AL379" s="167"/>
+      <c r="AM379" s="167"/>
+      <c r="AN379" s="187">
         <f>AVERAGE(AI379:AI381)-AVERAGE(AI382)</f>
         <v>5.7137079795851671</v>
       </c>
-      <c r="AM379" s="188">
+      <c r="AO379" s="188">
         <f>STDEV(AI379:AI381)</f>
         <v>0.29548323674965721</v>
       </c>
     </row>
-    <row r="380" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="36" t="s">
         <v>115</v>
       </c>
@@ -46845,10 +47465,12 @@
       </c>
       <c r="AJ380" s="101"/>
       <c r="AK380" s="101"/>
-      <c r="AL380" s="184"/>
-      <c r="AM380" s="185"/>
+      <c r="AL380" s="101"/>
+      <c r="AM380" s="101"/>
+      <c r="AN380" s="184"/>
+      <c r="AO380" s="185"/>
     </row>
-    <row r="381" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="36" t="s">
         <v>115</v>
       </c>
@@ -46959,10 +47581,12 @@
       </c>
       <c r="AJ381" s="101"/>
       <c r="AK381" s="101"/>
-      <c r="AL381" s="184"/>
-      <c r="AM381" s="185"/>
+      <c r="AL381" s="101"/>
+      <c r="AM381" s="101"/>
+      <c r="AN381" s="184"/>
+      <c r="AO381" s="185"/>
     </row>
-    <row r="382" spans="1:359" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:361" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="36" t="s">
         <v>238</v>
       </c>
@@ -47073,10 +47697,12 @@
       </c>
       <c r="AJ382" s="101"/>
       <c r="AK382" s="101"/>
-      <c r="AL382" s="184"/>
-      <c r="AM382" s="185"/>
+      <c r="AL382" s="101"/>
+      <c r="AM382" s="101"/>
+      <c r="AN382" s="184"/>
+      <c r="AO382" s="185"/>
     </row>
-    <row r="383" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="14" t="s">
         <v>116</v>
       </c>
@@ -47192,16 +47818,18 @@
         <f>STDEV(AI383:AI385)</f>
         <v>0.36709945087166701</v>
       </c>
-      <c r="AL383" s="187">
+      <c r="AL383" s="116"/>
+      <c r="AM383" s="116"/>
+      <c r="AN383" s="187">
         <f>AVERAGE(AI383:AI385)-AVERAGE(AI386)</f>
         <v>3.7147589057187367</v>
       </c>
-      <c r="AM383" s="188">
+      <c r="AO383" s="188">
         <f>STDEV(AI383:AI385)</f>
         <v>0.36709945087166701</v>
       </c>
     </row>
-    <row r="384" spans="1:359" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:361" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="14" t="s">
         <v>116</v>
       </c>
@@ -47310,7 +47938,7 @@
         <v>4.2186729619914445</v>
       </c>
     </row>
-    <row r="385" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="14" t="s">
         <v>116</v>
       </c>
@@ -47419,7 +48047,7 @@
         <v>3.5500530963173289</v>
       </c>
     </row>
-    <row r="386" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="14" t="s">
         <v>239</v>
       </c>
@@ -47528,7 +48156,7 @@
         <v>0.25716148679773687</v>
       </c>
     </row>
-    <row r="387" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="36" t="s">
         <v>117</v>
       </c>
@@ -47645,16 +48273,18 @@
         <f>STDEV(AI387:AI388)</f>
         <v>0.16929089634958508</v>
       </c>
-      <c r="AL387" s="187">
+      <c r="AL387" s="167"/>
+      <c r="AM387" s="167"/>
+      <c r="AN387" s="187">
         <f>AVERAGE(AI387:AI388)-AVERAGE(AI389)</f>
         <v>3.9097438902599935</v>
       </c>
-      <c r="AM387" s="188">
+      <c r="AO387" s="188">
         <f>STDEV(AI387:AI388)</f>
         <v>0.16929089634958508</v>
       </c>
     </row>
-    <row r="388" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="36" t="s">
         <v>117</v>
       </c>
@@ -47765,10 +48395,12 @@
       </c>
       <c r="AJ388" s="101"/>
       <c r="AK388" s="101"/>
-      <c r="AL388" s="184"/>
-      <c r="AM388" s="185"/>
+      <c r="AL388" s="101"/>
+      <c r="AM388" s="101"/>
+      <c r="AN388" s="184"/>
+      <c r="AO388" s="185"/>
     </row>
-    <row r="389" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="36" t="s">
         <v>240</v>
       </c>
@@ -47879,10 +48511,12 @@
       </c>
       <c r="AJ389" s="101"/>
       <c r="AK389" s="101"/>
-      <c r="AL389" s="184"/>
-      <c r="AM389" s="185"/>
+      <c r="AL389" s="101"/>
+      <c r="AM389" s="101"/>
+      <c r="AN389" s="184"/>
+      <c r="AO389" s="185"/>
     </row>
-    <row r="390" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="14" t="s">
         <v>118</v>
       </c>
@@ -47998,16 +48632,18 @@
         <f>STDEV(AI390:AI391)</f>
         <v>1.2904041628534701</v>
       </c>
-      <c r="AL390" s="187">
+      <c r="AL390" s="116"/>
+      <c r="AM390" s="116"/>
+      <c r="AN390" s="187">
         <f>AVERAGE(AI390:AI391)-AVERAGE(AI392)</f>
         <v>0.90494643688646437</v>
       </c>
-      <c r="AM390" s="188">
+      <c r="AO390" s="188">
         <f>STDEV(AI390:AI391)</f>
         <v>1.2904041628534701</v>
       </c>
     </row>
-    <row r="391" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="14" t="s">
         <v>118</v>
       </c>
@@ -48117,10 +48753,12 @@
       </c>
       <c r="AJ391" s="116"/>
       <c r="AK391" s="116"/>
-      <c r="AL391" s="187"/>
-      <c r="AM391" s="188"/>
+      <c r="AL391" s="116"/>
+      <c r="AM391" s="116"/>
+      <c r="AN391" s="187"/>
+      <c r="AO391" s="188"/>
     </row>
-    <row r="392" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="14" t="s">
         <v>241</v>
       </c>
@@ -48230,10 +48868,12 @@
       </c>
       <c r="AJ392" s="116"/>
       <c r="AK392" s="116"/>
-      <c r="AL392" s="187"/>
-      <c r="AM392" s="188"/>
+      <c r="AL392" s="116"/>
+      <c r="AM392" s="116"/>
+      <c r="AN392" s="187"/>
+      <c r="AO392" s="188"/>
     </row>
-    <row r="393" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="36" t="s">
         <v>119</v>
       </c>
@@ -48350,16 +48990,18 @@
         <f>STDEV(AI393:AI394)</f>
         <v>0.56472973608078525</v>
       </c>
-      <c r="AL393" s="187">
+      <c r="AL393" s="167"/>
+      <c r="AM393" s="167"/>
+      <c r="AN393" s="187">
         <f>AVERAGE(AI393:AI394)-AVERAGE(AI395)</f>
         <v>0.30725296335011676</v>
       </c>
-      <c r="AM393" s="188">
+      <c r="AO393" s="188">
         <f>STDEV(AI393:AI394)</f>
         <v>0.56472973608078525</v>
       </c>
     </row>
-    <row r="394" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="36" t="s">
         <v>119</v>
       </c>
@@ -48470,10 +49112,12 @@
       </c>
       <c r="AJ394" s="101"/>
       <c r="AK394" s="101"/>
-      <c r="AL394" s="184"/>
-      <c r="AM394" s="185"/>
+      <c r="AL394" s="101"/>
+      <c r="AM394" s="101"/>
+      <c r="AN394" s="184"/>
+      <c r="AO394" s="185"/>
     </row>
-    <row r="395" spans="1:39" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:41" s="86" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="36" t="s">
         <v>242</v>
       </c>
@@ -48586,10 +49230,12 @@
       </c>
       <c r="AJ395" s="101"/>
       <c r="AK395" s="101"/>
-      <c r="AL395" s="184"/>
-      <c r="AM395" s="185"/>
+      <c r="AL395" s="101"/>
+      <c r="AM395" s="101"/>
+      <c r="AN395" s="184"/>
+      <c r="AO395" s="185"/>
     </row>
-    <row r="396" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="14" t="s">
         <v>158</v>
       </c>
@@ -48644,7 +49290,7 @@
       </c>
       <c r="AH396" s="121"/>
     </row>
-    <row r="397" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="14" t="s">
         <v>158</v>
       </c>
@@ -48699,7 +49345,7 @@
       </c>
       <c r="AH397" s="121"/>
     </row>
-    <row r="398" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="14" t="s">
         <v>158</v>
       </c>
@@ -48745,7 +49391,7 @@
       </c>
       <c r="AH398" s="121"/>
     </row>
-    <row r="399" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="14" t="s">
         <v>158</v>
       </c>
@@ -48791,7 +49437,7 @@
       </c>
       <c r="AH399" s="121"/>
     </row>
-    <row r="400" spans="1:39" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="14" t="s">
         <v>158</v>
       </c>
@@ -48891,6 +49537,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FE645E44DF4C347A076E5154A1E1A44" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5540a43bda451fd1f603e82bdd2c2e22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="0e9b77c3-686e-41f8-8658-848585ae3dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1032ffb6c5698aeb6b8514bfe6c240d4" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -49065,25 +49729,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DDE3344-DA54-4FED-BD22-12DB614E7072}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40DEE15-0DFC-47C3-99E1-30D877720169}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{233D6EEC-7CEA-4537-A320-1E1E1AA182A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49100,29 +49771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40DEE15-0DFC-47C3-99E1-30D877720169}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DDE3344-DA54-4FED-BD22-12DB614E7072}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0e9b77c3-686e-41f8-8658-848585ae3dd1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>